--- a/NLP/TOMES_Entity_Dictionary.xlsx
+++ b/NLP/TOMES_Entity_Dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="20400" windowHeight="10410" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="20400" windowHeight="10410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="580">
   <si>
     <t>pattern</t>
   </si>
@@ -1497,9 +1497,6 @@
     <t>deductible</t>
   </si>
   <si>
-    <t>A potential reference to a confidential phrase or acronym.</t>
-  </si>
-  <si>
     <t>PII.personal_health_information</t>
   </si>
   <si>
@@ -1719,9 +1716,6 @@
     <t>PII.social_security_number</t>
   </si>
   <si>
-    <t>A potential reference to a health-related phrase or acronym.</t>
-  </si>
-  <si>
     <t>PII.credit_card_number.txt</t>
   </si>
   <si>
@@ -1741,6 +1735,36 @@
   </si>
   <si>
     <t>PII.social_security_number.txt</t>
+  </si>
+  <si>
+    <t>A potential reference to health-related information.</t>
+  </si>
+  <si>
+    <t>An acronym for Electronic Health Record.</t>
+  </si>
+  <si>
+    <t>An acronym for Electronic Medical Record.</t>
+  </si>
+  <si>
+    <t>An acronym for Electronic Protected Health Information.</t>
+  </si>
+  <si>
+    <t>An acronym for Family Medical Leave Act.</t>
+  </si>
+  <si>
+    <t>An acronym for Protection Health Information.</t>
+  </si>
+  <si>
+    <t>A potential reference to sensitive information.</t>
+  </si>
+  <si>
+    <t>An acronym for Business Continuity Planning.</t>
+  </si>
+  <si>
+    <t>An acronym for Continuity Of Operations.</t>
+  </si>
+  <si>
+    <t>An acronym for Non-Disclosure Agreement.</t>
   </si>
 </sst>
 </file>
@@ -2184,7 +2208,8 @@
   <dimension ref="A1:F319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B261" sqref="B261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7515,16 +7540,16 @@
         <v>0253</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C254" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="D254" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E254" s="18" t="s">
         <v>550</v>
-      </c>
-      <c r="D254" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E254" s="18" t="s">
-        <v>551</v>
       </c>
       <c r="F254" s="18" t="s">
         <v>80</v>
@@ -7536,16 +7561,16 @@
         <v>0254</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C255" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="D255" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E255" s="18" t="s">
         <v>552</v>
-      </c>
-      <c r="D255" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E255" s="18" t="s">
-        <v>553</v>
       </c>
       <c r="F255" s="18" t="s">
         <v>80</v>
@@ -7557,16 +7582,16 @@
         <v>0255</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C256" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="D256" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E256" s="18" t="s">
         <v>554</v>
-      </c>
-      <c r="D256" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E256" s="18" t="s">
-        <v>555</v>
       </c>
       <c r="F256" s="18" t="s">
         <v>80</v>
@@ -7578,10 +7603,10 @@
         <v>0256</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C257" s="23" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D257" s="25" t="b">
         <v>1</v>
@@ -7599,16 +7624,16 @@
         <v>0257</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C258" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="D258" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E258" s="18" t="s">
         <v>557</v>
-      </c>
-      <c r="D258" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E258" s="18" t="s">
-        <v>558</v>
       </c>
       <c r="F258" s="18" t="s">
         <v>80</v>
@@ -7620,16 +7645,16 @@
         <v>0258</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C259" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="D259" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E259" s="19" t="s">
         <v>559</v>
-      </c>
-      <c r="D259" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E259" s="19" t="s">
-        <v>560</v>
       </c>
       <c r="F259" s="18" t="s">
         <v>80</v>
@@ -7641,10 +7666,10 @@
         <v>0259</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C260" s="23" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D260" s="25" t="b">
         <v>1</v>
@@ -7662,16 +7687,16 @@
         <v>0260</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C261" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="D261" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E261" s="18" t="s">
         <v>562</v>
-      </c>
-      <c r="D261" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E261" s="18" t="s">
-        <v>563</v>
       </c>
       <c r="F261" s="18" t="s">
         <v>80</v>
@@ -7686,13 +7711,13 @@
         <v>489</v>
       </c>
       <c r="C262" s="21" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D262" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E262" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F262" s="21" t="s">
         <v>80</v>
@@ -7704,16 +7729,16 @@
         <v>0262</v>
       </c>
       <c r="B263" s="21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C263" s="21" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D263" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E263" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F263" s="21" t="s">
         <v>80</v>
@@ -7725,16 +7750,16 @@
         <v>0263</v>
       </c>
       <c r="B264" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C264" s="21" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="D264" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E264" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F264" s="21" t="s">
         <v>80</v>
@@ -7746,16 +7771,16 @@
         <v>0264</v>
       </c>
       <c r="B265" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C265" s="21" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="D265" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E265" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F265" s="21" t="s">
         <v>80</v>
@@ -7767,16 +7792,16 @@
         <v>0265</v>
       </c>
       <c r="B266" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C266" s="21" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="D266" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E266" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F266" s="21" t="s">
         <v>80</v>
@@ -7788,16 +7813,16 @@
         <v>0266</v>
       </c>
       <c r="B267" s="21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C267" s="21" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="D267" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E267" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F267" s="21" t="s">
         <v>80</v>
@@ -7809,16 +7834,16 @@
         <v>0267</v>
       </c>
       <c r="B268" s="21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C268" s="21" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="D268" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E268" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F268" s="21" t="s">
         <v>80</v>
@@ -7830,16 +7855,16 @@
         <v>0268</v>
       </c>
       <c r="B269" s="21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C269" s="21" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D269" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E269" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F269" s="21" t="s">
         <v>80</v>
@@ -7851,16 +7876,16 @@
         <v>0269</v>
       </c>
       <c r="B270" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C270" s="21" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D270" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E270" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F270" s="21" t="s">
         <v>80</v>
@@ -7872,16 +7897,16 @@
         <v>0270</v>
       </c>
       <c r="B271" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C271" s="21" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D271" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E271" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F271" s="21" t="s">
         <v>80</v>
@@ -7893,16 +7918,16 @@
         <v>0271</v>
       </c>
       <c r="B272" s="21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C272" s="21" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="D272" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E272" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F272" s="21" t="s">
         <v>80</v>
@@ -7914,16 +7939,16 @@
         <v>0272</v>
       </c>
       <c r="B273" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C273" s="21" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D273" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E273" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F273" s="21" t="s">
         <v>80</v>
@@ -7935,16 +7960,16 @@
         <v>0273</v>
       </c>
       <c r="B274" s="21" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C274" s="21" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D274" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E274" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F274" s="21" t="s">
         <v>80</v>
@@ -7956,16 +7981,16 @@
         <v>0274</v>
       </c>
       <c r="B275" s="21" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C275" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D275" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E275" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F275" s="21" t="s">
         <v>80</v>
@@ -7977,16 +8002,16 @@
         <v>0275</v>
       </c>
       <c r="B276" s="21" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C276" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D276" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E276" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F276" s="21" t="s">
         <v>80</v>
@@ -7998,16 +8023,16 @@
         <v>0276</v>
       </c>
       <c r="B277" s="21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C277" s="21" t="s">
-        <v>490</v>
+        <v>577</v>
       </c>
       <c r="D277" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E277" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F277" s="21" t="s">
         <v>80</v>
@@ -8019,16 +8044,16 @@
         <v>0277</v>
       </c>
       <c r="B278" s="21" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C278" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D278" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E278" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F278" s="21" t="s">
         <v>80</v>
@@ -8040,16 +8065,16 @@
         <v>0278</v>
       </c>
       <c r="B279" s="21" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C279" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D279" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E279" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F279" s="21" t="s">
         <v>80</v>
@@ -8061,16 +8086,16 @@
         <v>0279</v>
       </c>
       <c r="B280" s="21" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C280" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D280" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E280" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F280" s="21" t="s">
         <v>80</v>
@@ -8082,16 +8107,16 @@
         <v>0280</v>
       </c>
       <c r="B281" s="21" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C281" s="21" t="s">
-        <v>490</v>
+        <v>578</v>
       </c>
       <c r="D281" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E281" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F281" s="21" t="s">
         <v>80</v>
@@ -8103,16 +8128,16 @@
         <v>0281</v>
       </c>
       <c r="B282" s="21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C282" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D282" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E282" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F282" s="21" t="s">
         <v>80</v>
@@ -8124,16 +8149,16 @@
         <v>0282</v>
       </c>
       <c r="B283" s="21" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C283" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D283" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E283" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F283" s="21" t="s">
         <v>80</v>
@@ -8145,16 +8170,16 @@
         <v>0283</v>
       </c>
       <c r="B284" s="21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C284" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D284" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E284" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F284" s="21" t="s">
         <v>80</v>
@@ -8166,16 +8191,16 @@
         <v>0284</v>
       </c>
       <c r="B285" s="21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C285" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D285" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E285" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F285" s="21" t="s">
         <v>80</v>
@@ -8187,16 +8212,16 @@
         <v>0285</v>
       </c>
       <c r="B286" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C286" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D286" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E286" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F286" s="21" t="s">
         <v>80</v>
@@ -8208,16 +8233,16 @@
         <v>0286</v>
       </c>
       <c r="B287" s="21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C287" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D287" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E287" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F287" s="21" t="s">
         <v>80</v>
@@ -8229,16 +8254,16 @@
         <v>0287</v>
       </c>
       <c r="B288" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C288" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D288" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E288" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F288" s="21" t="s">
         <v>80</v>
@@ -8250,16 +8275,16 @@
         <v>0288</v>
       </c>
       <c r="B289" s="21" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C289" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D289" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E289" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F289" s="21" t="s">
         <v>80</v>
@@ -8271,16 +8296,16 @@
         <v>0289</v>
       </c>
       <c r="B290" s="21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C290" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D290" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E290" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F290" s="21" t="s">
         <v>80</v>
@@ -8292,16 +8317,16 @@
         <v>0290</v>
       </c>
       <c r="B291" s="21" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C291" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D291" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E291" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F291" s="21" t="s">
         <v>80</v>
@@ -8313,16 +8338,16 @@
         <v>0291</v>
       </c>
       <c r="B292" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C292" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D292" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E292" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F292" s="21" t="s">
         <v>80</v>
@@ -8334,16 +8359,16 @@
         <v>0292</v>
       </c>
       <c r="B293" s="21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C293" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D293" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E293" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F293" s="21" t="s">
         <v>80</v>
@@ -8355,16 +8380,16 @@
         <v>0293</v>
       </c>
       <c r="B294" s="21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C294" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D294" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E294" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F294" s="21" t="s">
         <v>80</v>
@@ -8376,16 +8401,16 @@
         <v>0294</v>
       </c>
       <c r="B295" s="21" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C295" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D295" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E295" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F295" s="21" t="s">
         <v>80</v>
@@ -8397,16 +8422,16 @@
         <v>0295</v>
       </c>
       <c r="B296" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C296" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D296" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E296" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F296" s="21" t="s">
         <v>80</v>
@@ -8418,16 +8443,16 @@
         <v>0296</v>
       </c>
       <c r="B297" s="21" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C297" s="21" t="s">
-        <v>490</v>
+        <v>579</v>
       </c>
       <c r="D297" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E297" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F297" s="21" t="s">
         <v>80</v>
@@ -8439,16 +8464,16 @@
         <v>0297</v>
       </c>
       <c r="B298" s="21" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C298" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D298" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E298" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F298" s="21" t="s">
         <v>80</v>
@@ -8460,16 +8485,16 @@
         <v>0298</v>
       </c>
       <c r="B299" s="21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C299" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D299" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E299" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F299" s="21" t="s">
         <v>80</v>
@@ -8481,16 +8506,16 @@
         <v>0299</v>
       </c>
       <c r="B300" s="21" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C300" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D300" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E300" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F300" s="21" t="s">
         <v>80</v>
@@ -8502,16 +8527,16 @@
         <v>0300</v>
       </c>
       <c r="B301" s="21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C301" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D301" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E301" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F301" s="21" t="s">
         <v>80</v>
@@ -8523,16 +8548,16 @@
         <v>0301</v>
       </c>
       <c r="B302" s="21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C302" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D302" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E302" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F302" s="21" t="s">
         <v>80</v>
@@ -8544,16 +8569,16 @@
         <v>0302</v>
       </c>
       <c r="B303" s="21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C303" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D303" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E303" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F303" s="21" t="s">
         <v>80</v>
@@ -8565,16 +8590,16 @@
         <v>0303</v>
       </c>
       <c r="B304" s="21" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C304" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D304" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E304" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F304" s="21" t="s">
         <v>80</v>
@@ -8586,16 +8611,16 @@
         <v>0304</v>
       </c>
       <c r="B305" s="21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C305" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D305" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E305" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F305" s="21" t="s">
         <v>80</v>
@@ -8607,16 +8632,16 @@
         <v>0305</v>
       </c>
       <c r="B306" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C306" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D306" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E306" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F306" s="21" t="s">
         <v>80</v>
@@ -8628,16 +8653,16 @@
         <v>0306</v>
       </c>
       <c r="B307" s="21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C307" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D307" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E307" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F307" s="21" t="s">
         <v>80</v>
@@ -8649,16 +8674,16 @@
         <v>0307</v>
       </c>
       <c r="B308" s="21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C308" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D308" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E308" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F308" s="21" t="s">
         <v>80</v>
@@ -8670,16 +8695,16 @@
         <v>0308</v>
       </c>
       <c r="B309" s="21" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C309" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D309" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E309" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F309" s="21" t="s">
         <v>80</v>
@@ -8691,16 +8716,16 @@
         <v>0309</v>
       </c>
       <c r="B310" s="21" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C310" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D310" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E310" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F310" s="21" t="s">
         <v>80</v>
@@ -8712,16 +8737,16 @@
         <v>0310</v>
       </c>
       <c r="B311" s="21" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C311" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D311" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E311" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F311" s="21" t="s">
         <v>80</v>
@@ -8733,16 +8758,16 @@
         <v>0311</v>
       </c>
       <c r="B312" s="21" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C312" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D312" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E312" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F312" s="21" t="s">
         <v>80</v>
@@ -8754,16 +8779,16 @@
         <v>0312</v>
       </c>
       <c r="B313" s="21" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C313" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D313" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E313" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F313" s="21" t="s">
         <v>80</v>
@@ -8775,16 +8800,16 @@
         <v>0313</v>
       </c>
       <c r="B314" s="21" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C314" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D314" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E314" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F314" s="21" t="s">
         <v>80</v>
@@ -8796,16 +8821,16 @@
         <v>0314</v>
       </c>
       <c r="B315" s="21" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C315" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D315" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E315" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F315" s="21" t="s">
         <v>80</v>
@@ -8817,16 +8842,16 @@
         <v>0315</v>
       </c>
       <c r="B316" s="21" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C316" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D316" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E316" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F316" s="21" t="s">
         <v>80</v>
@@ -8838,16 +8863,16 @@
         <v>0316</v>
       </c>
       <c r="B317" s="21" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C317" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D317" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E317" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F317" s="21" t="s">
         <v>80</v>
@@ -8859,16 +8884,16 @@
         <v>0317</v>
       </c>
       <c r="B318" s="21" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C318" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D318" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E318" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F318" s="21" t="s">
         <v>80</v>
@@ -8880,16 +8905,16 @@
         <v>0318</v>
       </c>
       <c r="B319" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C319" s="21" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="D319" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E319" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F319" s="21" t="s">
         <v>80</v>

--- a/NLP/TOMES_Entity_Dictionary.xlsx
+++ b/NLP/TOMES_Entity_Dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="20400" windowHeight="10410" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="20400" windowHeight="10410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="582">
   <si>
     <t>pattern</t>
   </si>
@@ -1765,6 +1765,12 @@
   </si>
   <si>
     <t>An acronym for Non-Disclosure Agreement.</t>
+  </si>
+  <si>
+    <t>A possible URL string.</t>
+  </si>
+  <si>
+    <t>TOMES.URL</t>
   </si>
 </sst>
 </file>
@@ -2205,11 +2211,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F319"/>
+  <dimension ref="A1:F320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B261" sqref="B261"/>
+      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B320" sqref="B320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7620,7 +7626,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="str">
-        <f t="shared" ref="A258:A319" si="4">TEXT(ROW()-1, "0000")</f>
+        <f t="shared" ref="A258:A320" si="4">TEXT(ROW()-1, "0000")</f>
         <v>0257</v>
       </c>
       <c r="B258" s="6" t="s">
@@ -8917,6 +8923,24 @@
         <v>504</v>
       </c>
       <c r="F319" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>0319</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D320" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E320" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="F320" s="6" t="s">
         <v>80</v>
       </c>
     </row>

--- a/NLP/TOMES_Entity_Dictionary.xlsx
+++ b/NLP/TOMES_Entity_Dictionary.xlsx
@@ -15,6 +15,9 @@
     <sheet name="README" sheetId="2" r:id="rId1"/>
     <sheet name="Entities" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Entities!$A$1:$F$320</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="904">
   <si>
     <t>pattern</t>
   </si>
@@ -1338,33 +1341,9 @@
     <t>S. L.</t>
   </si>
   <si>
-    <t>code_of_federal_regulations_citation.txt</t>
-  </si>
-  <si>
     <t>Code of Federal Regulations citation.</t>
   </si>
   <si>
-    <t>executive_order_citation.txt</t>
-  </si>
-  <si>
-    <t>Executive Order citation.</t>
-  </si>
-  <si>
-    <t>general_citation.txt</t>
-  </si>
-  <si>
-    <t>General Statutes citation.</t>
-  </si>
-  <si>
-    <t>house_bill_citation.txt</t>
-  </si>
-  <si>
-    <t>House Bill citation.</t>
-  </si>
-  <si>
-    <t>north_carolina_administrative_code_citation.txt</t>
-  </si>
-  <si>
     <t>North Carolina Administrative Code citation.</t>
   </si>
   <si>
@@ -1422,15 +1401,6 @@
     <t>Refers to rules made by federal agencies.</t>
   </si>
   <si>
-    <t>senate_bill_citation.txt</t>
-  </si>
-  <si>
-    <t>Senate Bill citation.</t>
-  </si>
-  <si>
-    <t>united_states_code_citation.txt</t>
-  </si>
-  <si>
     <t>United States Code citation.</t>
   </si>
   <si>
@@ -1674,15 +1644,9 @@
     <t>vacation leave</t>
   </si>
   <si>
-    <t>Checking and savings account numbers, with or without routing numbers. Those with routing numbers will be labelled with a higher confidence.</t>
-  </si>
-  <si>
     <t>PII.bank_account_number</t>
   </si>
   <si>
-    <t>Electronic mailing address.</t>
-  </si>
-  <si>
     <t>PII.email_address</t>
   </si>
   <si>
@@ -1695,9 +1659,6 @@
     <t>North Carolina government employee identification number.</t>
   </si>
   <si>
-    <t>Credit and debit card numbers.</t>
-  </si>
-  <si>
     <t>PII.credit_card_number</t>
   </si>
   <si>
@@ -1716,27 +1677,6 @@
     <t>PII.social_security_number</t>
   </si>
   <si>
-    <t>PII.credit_card_number.txt</t>
-  </si>
-  <si>
-    <t>PII.email_address.txt</t>
-  </si>
-  <si>
-    <t>PII.passport_number.txt</t>
-  </si>
-  <si>
-    <t>PII.employee_id.txt</t>
-  </si>
-  <si>
-    <t>PII.taxpayer_id.txt</t>
-  </si>
-  <si>
-    <t>PII.drivers_license_number.txt</t>
-  </si>
-  <si>
-    <t>PII.social_security_number.txt</t>
-  </si>
-  <si>
     <t>A potential reference to health-related information.</t>
   </si>
   <si>
@@ -1767,10 +1707,1039 @@
     <t>An acronym for Non-Disclosure Agreement.</t>
   </si>
   <si>
-    <t>A possible URL string.</t>
-  </si>
-  <si>
     <t>TOMES.URL</t>
+  </si>
+  <si>
+    <t>(http|https|ftp){1}(://)([0-9a-zA-Z]){1,63}(\.|@|:)([^\s]){1,2000}</t>
+  </si>
+  <si>
+    <t>A Uniform Resource Locator or File Transfer Protocal string reference.</t>
+  </si>
+  <si>
+    <t>(?!000)([0-6][0-9]{2}|7([0-6][0-9]{1}|7[012]))([\s{1}-]){0,1}(?!00)[0-9]{2}\3(?!0000)[0-9]{4}</t>
+  </si>
+  <si>
+    <t>[0]{4}[0-9]{8}</t>
+  </si>
+  <si>
+    <t>Patterns using regular expressions are highlighted in green via Conditional Formatting. You can also search the "patter" column for a "[" character to find regular expressions.</t>
+  </si>
+  <si>
+    <t>[0-9]{2}-[0-9]{7}([a-zA-Z]|[0-9]{3}){0,1}</t>
+  </si>
+  <si>
+    <t>[0-9]{4}[\s|-][0-9]{4}[\s|-][0-9]{4}[\s|-]{0,1}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>[0-9]{8}</t>
+  </si>
+  <si>
+    <t>([0-9]{8,9}|[a-zA-Z][0-9]{7})</t>
+  </si>
+  <si>
+    <t>["'\[{&lt;]{0,1}[a-zA-Z0-9_\-\.]{1,100}@((\[[0-9]{1,3}\.[0-9]{1,3}\.[0-9]{1,3}\.)|(([a-zA-Z0-9\-]+\.)+))([a-zA-Z]{2,4}|[0-9]{1,3})(\]?)["'\]}&gt;]{0,1}</t>
+  </si>
+  <si>
+    <t>Checking and savings account numbers, with or without routing numbers. Those with routing numbers are more likely to be actual account numbers.</t>
+  </si>
+  <si>
+    <t>([1-9]|[1-5][0-9])\s(USC|U\.S\.C)(\s§{1,2}){0,1}\s[1-9][0-9]{0,2}(-[1-9][0-9]{0,3}){0,1}</t>
+  </si>
+  <si>
+    <t>((?i)Senate\sBill(?-i)|S|SB|S\.\s{0,1}B\.)\s{0,1}[0-9]{1,4}</t>
+  </si>
+  <si>
+    <t>([1-9]|[1-5][0-9])\s(CFR|C\.F\.R)(\s§){0,1}\s[0-9]{1,4}(\.[1-9]{1,4}){0,1}</t>
+  </si>
+  <si>
+    <t>([1-9]|[1-3][0-9])[A-Z]{0,1}\s(N\.C\.\sAdmin\.\sCode|NC\sAdmin\.\sCode|NCAC)\s[1-9][0-9]{0,1}[A-Z]\.[0-9]{1,4}</t>
+  </si>
+  <si>
+    <t>((?i)House\sBill(?-i)\s|H|HB\s{0,1}|H\.\s{0,1}B\.\s)[0-9]{1,4}</t>
+  </si>
+  <si>
+    <t>((?i)General\sStatute(?-i)\s|GS\s{0,1}|G\.\s{0,1}S\.\s)(§\s{0,1}){0,1}[12][0-9]{0,2}[a-zA-Z]{0,1}</t>
+  </si>
+  <si>
+    <t>(Executive\sOrder\s|Executive\sOrder\sNo\.\s|EO\s{0,1}|E\.\s{0,1}O\.\s)[0-9]{1,3}</t>
+  </si>
+  <si>
+    <t>((0[0-9])|(1[0-2])|(2[1-9])|(3[0-2])|(6[1-9])|(7[0-2])|80)[0-9]{2}-{0,1}[0-9]{4}-{0,1}[0-9](\s|-)[0-9]{6,17}</t>
+  </si>
+  <si>
+    <t>North Carolina Senate Bill citation.</t>
+  </si>
+  <si>
+    <t>North Carolina House Bill citation.</t>
+  </si>
+  <si>
+    <t>North Carolina General Statutes citation.</t>
+  </si>
+  <si>
+    <t>North Carolina Executive Order citation.</t>
+  </si>
+  <si>
+    <t>An electronic mailing address.</t>
+  </si>
+  <si>
+    <t>Credit or debit card number.</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
+    <t>0017</t>
+  </si>
+  <si>
+    <t>0018</t>
+  </si>
+  <si>
+    <t>0019</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>0021</t>
+  </si>
+  <si>
+    <t>0022</t>
+  </si>
+  <si>
+    <t>0023</t>
+  </si>
+  <si>
+    <t>0024</t>
+  </si>
+  <si>
+    <t>0025</t>
+  </si>
+  <si>
+    <t>0026</t>
+  </si>
+  <si>
+    <t>0027</t>
+  </si>
+  <si>
+    <t>0028</t>
+  </si>
+  <si>
+    <t>0029</t>
+  </si>
+  <si>
+    <t>0030</t>
+  </si>
+  <si>
+    <t>0031</t>
+  </si>
+  <si>
+    <t>0032</t>
+  </si>
+  <si>
+    <t>0033</t>
+  </si>
+  <si>
+    <t>0034</t>
+  </si>
+  <si>
+    <t>0035</t>
+  </si>
+  <si>
+    <t>0036</t>
+  </si>
+  <si>
+    <t>0037</t>
+  </si>
+  <si>
+    <t>0038</t>
+  </si>
+  <si>
+    <t>0039</t>
+  </si>
+  <si>
+    <t>0040</t>
+  </si>
+  <si>
+    <t>0041</t>
+  </si>
+  <si>
+    <t>0042</t>
+  </si>
+  <si>
+    <t>0043</t>
+  </si>
+  <si>
+    <t>0044</t>
+  </si>
+  <si>
+    <t>0045</t>
+  </si>
+  <si>
+    <t>0046</t>
+  </si>
+  <si>
+    <t>0047</t>
+  </si>
+  <si>
+    <t>0048</t>
+  </si>
+  <si>
+    <t>0049</t>
+  </si>
+  <si>
+    <t>0050</t>
+  </si>
+  <si>
+    <t>0051</t>
+  </si>
+  <si>
+    <t>0052</t>
+  </si>
+  <si>
+    <t>0053</t>
+  </si>
+  <si>
+    <t>0054</t>
+  </si>
+  <si>
+    <t>0055</t>
+  </si>
+  <si>
+    <t>0056</t>
+  </si>
+  <si>
+    <t>0057</t>
+  </si>
+  <si>
+    <t>0058</t>
+  </si>
+  <si>
+    <t>0059</t>
+  </si>
+  <si>
+    <t>0060</t>
+  </si>
+  <si>
+    <t>0061</t>
+  </si>
+  <si>
+    <t>0062</t>
+  </si>
+  <si>
+    <t>0063</t>
+  </si>
+  <si>
+    <t>0064</t>
+  </si>
+  <si>
+    <t>0065</t>
+  </si>
+  <si>
+    <t>0066</t>
+  </si>
+  <si>
+    <t>0067</t>
+  </si>
+  <si>
+    <t>0068</t>
+  </si>
+  <si>
+    <t>0069</t>
+  </si>
+  <si>
+    <t>0070</t>
+  </si>
+  <si>
+    <t>0071</t>
+  </si>
+  <si>
+    <t>0072</t>
+  </si>
+  <si>
+    <t>0073</t>
+  </si>
+  <si>
+    <t>0074</t>
+  </si>
+  <si>
+    <t>0075</t>
+  </si>
+  <si>
+    <t>0076</t>
+  </si>
+  <si>
+    <t>0077</t>
+  </si>
+  <si>
+    <t>0078</t>
+  </si>
+  <si>
+    <t>0079</t>
+  </si>
+  <si>
+    <t>0080</t>
+  </si>
+  <si>
+    <t>0081</t>
+  </si>
+  <si>
+    <t>0082</t>
+  </si>
+  <si>
+    <t>0083</t>
+  </si>
+  <si>
+    <t>0084</t>
+  </si>
+  <si>
+    <t>0085</t>
+  </si>
+  <si>
+    <t>0086</t>
+  </si>
+  <si>
+    <t>0087</t>
+  </si>
+  <si>
+    <t>0088</t>
+  </si>
+  <si>
+    <t>0089</t>
+  </si>
+  <si>
+    <t>0090</t>
+  </si>
+  <si>
+    <t>0091</t>
+  </si>
+  <si>
+    <t>0092</t>
+  </si>
+  <si>
+    <t>0093</t>
+  </si>
+  <si>
+    <t>0094</t>
+  </si>
+  <si>
+    <t>0095</t>
+  </si>
+  <si>
+    <t>0096</t>
+  </si>
+  <si>
+    <t>0097</t>
+  </si>
+  <si>
+    <t>0098</t>
+  </si>
+  <si>
+    <t>0099</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
+    <t>0104</t>
+  </si>
+  <si>
+    <t>0105</t>
+  </si>
+  <si>
+    <t>0106</t>
+  </si>
+  <si>
+    <t>0107</t>
+  </si>
+  <si>
+    <t>0108</t>
+  </si>
+  <si>
+    <t>0109</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>0112</t>
+  </si>
+  <si>
+    <t>0113</t>
+  </si>
+  <si>
+    <t>0114</t>
+  </si>
+  <si>
+    <t>0115</t>
+  </si>
+  <si>
+    <t>0116</t>
+  </si>
+  <si>
+    <t>0117</t>
+  </si>
+  <si>
+    <t>0118</t>
+  </si>
+  <si>
+    <t>0119</t>
+  </si>
+  <si>
+    <t>0120</t>
+  </si>
+  <si>
+    <t>0121</t>
+  </si>
+  <si>
+    <t>0122</t>
+  </si>
+  <si>
+    <t>0123</t>
+  </si>
+  <si>
+    <t>0124</t>
+  </si>
+  <si>
+    <t>0125</t>
+  </si>
+  <si>
+    <t>0126</t>
+  </si>
+  <si>
+    <t>0127</t>
+  </si>
+  <si>
+    <t>0128</t>
+  </si>
+  <si>
+    <t>0129</t>
+  </si>
+  <si>
+    <t>0130</t>
+  </si>
+  <si>
+    <t>0131</t>
+  </si>
+  <si>
+    <t>0132</t>
+  </si>
+  <si>
+    <t>0133</t>
+  </si>
+  <si>
+    <t>0134</t>
+  </si>
+  <si>
+    <t>0135</t>
+  </si>
+  <si>
+    <t>0136</t>
+  </si>
+  <si>
+    <t>0137</t>
+  </si>
+  <si>
+    <t>0138</t>
+  </si>
+  <si>
+    <t>0139</t>
+  </si>
+  <si>
+    <t>0140</t>
+  </si>
+  <si>
+    <t>0141</t>
+  </si>
+  <si>
+    <t>0142</t>
+  </si>
+  <si>
+    <t>0143</t>
+  </si>
+  <si>
+    <t>0144</t>
+  </si>
+  <si>
+    <t>0145</t>
+  </si>
+  <si>
+    <t>0146</t>
+  </si>
+  <si>
+    <t>0147</t>
+  </si>
+  <si>
+    <t>0148</t>
+  </si>
+  <si>
+    <t>0149</t>
+  </si>
+  <si>
+    <t>0150</t>
+  </si>
+  <si>
+    <t>0151</t>
+  </si>
+  <si>
+    <t>0152</t>
+  </si>
+  <si>
+    <t>0153</t>
+  </si>
+  <si>
+    <t>0154</t>
+  </si>
+  <si>
+    <t>0155</t>
+  </si>
+  <si>
+    <t>0156</t>
+  </si>
+  <si>
+    <t>0157</t>
+  </si>
+  <si>
+    <t>0158</t>
+  </si>
+  <si>
+    <t>0159</t>
+  </si>
+  <si>
+    <t>0160</t>
+  </si>
+  <si>
+    <t>0161</t>
+  </si>
+  <si>
+    <t>0162</t>
+  </si>
+  <si>
+    <t>0163</t>
+  </si>
+  <si>
+    <t>0164</t>
+  </si>
+  <si>
+    <t>0165</t>
+  </si>
+  <si>
+    <t>0166</t>
+  </si>
+  <si>
+    <t>0167</t>
+  </si>
+  <si>
+    <t>0168</t>
+  </si>
+  <si>
+    <t>0169</t>
+  </si>
+  <si>
+    <t>0170</t>
+  </si>
+  <si>
+    <t>0171</t>
+  </si>
+  <si>
+    <t>0172</t>
+  </si>
+  <si>
+    <t>0173</t>
+  </si>
+  <si>
+    <t>0174</t>
+  </si>
+  <si>
+    <t>0175</t>
+  </si>
+  <si>
+    <t>0176</t>
+  </si>
+  <si>
+    <t>0177</t>
+  </si>
+  <si>
+    <t>0178</t>
+  </si>
+  <si>
+    <t>0179</t>
+  </si>
+  <si>
+    <t>0180</t>
+  </si>
+  <si>
+    <t>0181</t>
+  </si>
+  <si>
+    <t>0182</t>
+  </si>
+  <si>
+    <t>0183</t>
+  </si>
+  <si>
+    <t>0184</t>
+  </si>
+  <si>
+    <t>0185</t>
+  </si>
+  <si>
+    <t>0186</t>
+  </si>
+  <si>
+    <t>0187</t>
+  </si>
+  <si>
+    <t>0188</t>
+  </si>
+  <si>
+    <t>0189</t>
+  </si>
+  <si>
+    <t>0190</t>
+  </si>
+  <si>
+    <t>0191</t>
+  </si>
+  <si>
+    <t>0192</t>
+  </si>
+  <si>
+    <t>0193</t>
+  </si>
+  <si>
+    <t>0194</t>
+  </si>
+  <si>
+    <t>0195</t>
+  </si>
+  <si>
+    <t>0196</t>
+  </si>
+  <si>
+    <t>0197</t>
+  </si>
+  <si>
+    <t>0198</t>
+  </si>
+  <si>
+    <t>0199</t>
+  </si>
+  <si>
+    <t>0200</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>0202</t>
+  </si>
+  <si>
+    <t>0203</t>
+  </si>
+  <si>
+    <t>0204</t>
+  </si>
+  <si>
+    <t>0205</t>
+  </si>
+  <si>
+    <t>0206</t>
+  </si>
+  <si>
+    <t>0207</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>0209</t>
+  </si>
+  <si>
+    <t>0210</t>
+  </si>
+  <si>
+    <t>0211</t>
+  </si>
+  <si>
+    <t>0212</t>
+  </si>
+  <si>
+    <t>0213</t>
+  </si>
+  <si>
+    <t>0214</t>
+  </si>
+  <si>
+    <t>0215</t>
+  </si>
+  <si>
+    <t>0216</t>
+  </si>
+  <si>
+    <t>0217</t>
+  </si>
+  <si>
+    <t>0218</t>
+  </si>
+  <si>
+    <t>0219</t>
+  </si>
+  <si>
+    <t>0220</t>
+  </si>
+  <si>
+    <t>0221</t>
+  </si>
+  <si>
+    <t>0222</t>
+  </si>
+  <si>
+    <t>0223</t>
+  </si>
+  <si>
+    <t>0224</t>
+  </si>
+  <si>
+    <t>0225</t>
+  </si>
+  <si>
+    <t>0226</t>
+  </si>
+  <si>
+    <t>0227</t>
+  </si>
+  <si>
+    <t>0228</t>
+  </si>
+  <si>
+    <t>0229</t>
+  </si>
+  <si>
+    <t>0230</t>
+  </si>
+  <si>
+    <t>0231</t>
+  </si>
+  <si>
+    <t>0232</t>
+  </si>
+  <si>
+    <t>0233</t>
+  </si>
+  <si>
+    <t>0234</t>
+  </si>
+  <si>
+    <t>0235</t>
+  </si>
+  <si>
+    <t>0236</t>
+  </si>
+  <si>
+    <t>0237</t>
+  </si>
+  <si>
+    <t>0238</t>
+  </si>
+  <si>
+    <t>0239</t>
+  </si>
+  <si>
+    <t>0240</t>
+  </si>
+  <si>
+    <t>0241</t>
+  </si>
+  <si>
+    <t>0242</t>
+  </si>
+  <si>
+    <t>0243</t>
+  </si>
+  <si>
+    <t>0244</t>
+  </si>
+  <si>
+    <t>0245</t>
+  </si>
+  <si>
+    <t>0246</t>
+  </si>
+  <si>
+    <t>0247</t>
+  </si>
+  <si>
+    <t>0248</t>
+  </si>
+  <si>
+    <t>0249</t>
+  </si>
+  <si>
+    <t>0250</t>
+  </si>
+  <si>
+    <t>0251</t>
+  </si>
+  <si>
+    <t>0252</t>
+  </si>
+  <si>
+    <t>0253</t>
+  </si>
+  <si>
+    <t>0254</t>
+  </si>
+  <si>
+    <t>0255</t>
+  </si>
+  <si>
+    <t>0256</t>
+  </si>
+  <si>
+    <t>0257</t>
+  </si>
+  <si>
+    <t>0258</t>
+  </si>
+  <si>
+    <t>0259</t>
+  </si>
+  <si>
+    <t>0260</t>
+  </si>
+  <si>
+    <t>0261</t>
+  </si>
+  <si>
+    <t>0262</t>
+  </si>
+  <si>
+    <t>0263</t>
+  </si>
+  <si>
+    <t>0264</t>
+  </si>
+  <si>
+    <t>0265</t>
+  </si>
+  <si>
+    <t>0266</t>
+  </si>
+  <si>
+    <t>0267</t>
+  </si>
+  <si>
+    <t>0268</t>
+  </si>
+  <si>
+    <t>0269</t>
+  </si>
+  <si>
+    <t>0270</t>
+  </si>
+  <si>
+    <t>0271</t>
+  </si>
+  <si>
+    <t>0272</t>
+  </si>
+  <si>
+    <t>0273</t>
+  </si>
+  <si>
+    <t>0274</t>
+  </si>
+  <si>
+    <t>0275</t>
+  </si>
+  <si>
+    <t>0276</t>
+  </si>
+  <si>
+    <t>0277</t>
+  </si>
+  <si>
+    <t>0278</t>
+  </si>
+  <si>
+    <t>0279</t>
+  </si>
+  <si>
+    <t>0280</t>
+  </si>
+  <si>
+    <t>0281</t>
+  </si>
+  <si>
+    <t>0282</t>
+  </si>
+  <si>
+    <t>0283</t>
+  </si>
+  <si>
+    <t>0284</t>
+  </si>
+  <si>
+    <t>0285</t>
+  </si>
+  <si>
+    <t>0286</t>
+  </si>
+  <si>
+    <t>0287</t>
+  </si>
+  <si>
+    <t>0288</t>
+  </si>
+  <si>
+    <t>0289</t>
+  </si>
+  <si>
+    <t>0290</t>
+  </si>
+  <si>
+    <t>0291</t>
+  </si>
+  <si>
+    <t>0292</t>
+  </si>
+  <si>
+    <t>0293</t>
+  </si>
+  <si>
+    <t>0294</t>
+  </si>
+  <si>
+    <t>0295</t>
+  </si>
+  <si>
+    <t>0296</t>
+  </si>
+  <si>
+    <t>0297</t>
+  </si>
+  <si>
+    <t>0298</t>
+  </si>
+  <si>
+    <t>0299</t>
+  </si>
+  <si>
+    <t>0300</t>
+  </si>
+  <si>
+    <t>0301</t>
+  </si>
+  <si>
+    <t>0302</t>
+  </si>
+  <si>
+    <t>0303</t>
+  </si>
+  <si>
+    <t>0304</t>
+  </si>
+  <si>
+    <t>0305</t>
+  </si>
+  <si>
+    <t>0306</t>
+  </si>
+  <si>
+    <t>0307</t>
+  </si>
+  <si>
+    <t>0308</t>
+  </si>
+  <si>
+    <t>0309</t>
+  </si>
+  <si>
+    <t>0310</t>
+  </si>
+  <si>
+    <t>0311</t>
+  </si>
+  <si>
+    <t>0312</t>
+  </si>
+  <si>
+    <t>0313</t>
+  </si>
+  <si>
+    <t>0314</t>
+  </si>
+  <si>
+    <t>0315</t>
+  </si>
+  <si>
+    <t>0316</t>
+  </si>
+  <si>
+    <t>0317</t>
+  </si>
+  <si>
+    <t>0318</t>
+  </si>
+  <si>
+    <t>0319</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +2790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1890,11 +2859,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1902,16 +2910,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2191,10 +3189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,6 +3200,11 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -2214,14 +3217,14 @@
   <dimension ref="A1:F320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B320" sqref="B320"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41" style="28" customWidth="1"/>
     <col min="3" max="3" width="75.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="14" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" style="6" bestFit="1" customWidth="1"/>
@@ -2232,7 +3235,7 @@
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -2249,11 +3252,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="str">
-        <f t="shared" ref="A2:A65" si="0">TEXT(ROW()-1, "0000")</f>
-        <v>0001</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -2270,11 +3272,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0002</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -2291,11 +3292,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0003</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -2312,11 +3312,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0004</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -2333,11 +3332,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0005</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2354,11 +3352,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0006</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2375,11 +3372,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0007</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2396,11 +3392,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0008</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2417,11 +3412,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0009</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2438,11 +3432,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0010</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2459,11 +3452,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0011</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -2480,11 +3472,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0012</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -2501,11 +3492,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0013</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -2522,11 +3512,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0014</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -2543,11 +3532,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0015</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -2564,11 +3552,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0016</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -2585,11 +3572,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0017</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -2606,11 +3592,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0018</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -2627,11 +3612,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0019</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -2648,11 +3632,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0020</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -2669,11 +3652,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0021</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="B22" s="28" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -2690,11 +3672,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0022</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="B23" s="28" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -2711,11 +3692,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0023</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="B24" s="28" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -2732,11 +3712,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0024</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="B25" s="28" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -2753,11 +3732,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0025</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="B26" s="28" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -2774,11 +3752,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0026</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="B27" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -2795,11 +3772,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0027</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B28" s="28" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -2816,11 +3792,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0028</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="B29" s="28" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -2837,11 +3812,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0029</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="B30" s="28" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -2858,11 +3832,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0030</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="B31" s="28" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -2879,11 +3852,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0031</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B32" s="28" t="s">
         <v>59</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -2900,11 +3872,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0032</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="B33" s="28" t="s">
         <v>61</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -2921,11 +3892,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0033</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="B34" s="28" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -2942,11 +3912,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0034</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="B35" s="28" t="s">
         <v>65</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -2963,11 +3932,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0035</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="B36" s="28" t="s">
         <v>67</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -2984,11 +3952,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0036</v>
-      </c>
-      <c r="B37" s="6" t="s">
+      <c r="A37" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="B37" s="28" t="s">
         <v>69</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -3005,11 +3972,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0037</v>
-      </c>
-      <c r="B38" s="14" t="s">
+      <c r="A38" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="B38" s="27" t="s">
         <v>79</v>
       </c>
       <c r="C38" s="14" t="s">
@@ -3026,11 +3992,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0038</v>
-      </c>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="B39" s="28" t="s">
         <v>81</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -3047,11 +4012,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0039</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="A40" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="B40" s="28" t="s">
         <v>82</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -3068,11 +4032,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0040</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="B41" s="28" t="s">
         <v>83</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -3089,11 +4052,10 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0041</v>
-      </c>
-      <c r="B42" s="6" t="s">
+      <c r="A42" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="B42" s="28" t="s">
         <v>84</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -3110,11 +4072,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0042</v>
-      </c>
-      <c r="B43" s="6" t="s">
+      <c r="A43" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="B43" s="28" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="6" t="s">
@@ -3131,11 +4092,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0043</v>
-      </c>
-      <c r="B44" s="6" t="s">
+      <c r="A44" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="B44" s="28" t="s">
         <v>86</v>
       </c>
       <c r="C44" s="6" t="s">
@@ -3152,11 +4112,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0044</v>
-      </c>
-      <c r="B45" s="6" t="s">
+      <c r="A45" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="B45" s="28" t="s">
         <v>87</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -3173,11 +4132,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0045</v>
-      </c>
-      <c r="B46" s="6" t="s">
+      <c r="A46" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="B46" s="28" t="s">
         <v>88</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -3194,11 +4152,10 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0046</v>
-      </c>
-      <c r="B47" s="6" t="s">
+      <c r="A47" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="B47" s="28" t="s">
         <v>89</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -3215,11 +4172,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0047</v>
-      </c>
-      <c r="B48" s="6" t="s">
+      <c r="A48" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="B48" s="28" t="s">
         <v>90</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -3236,11 +4192,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0048</v>
-      </c>
-      <c r="B49" s="6" t="s">
+      <c r="A49" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="B49" s="28" t="s">
         <v>91</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -3257,11 +4212,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0049</v>
-      </c>
-      <c r="B50" s="6" t="s">
+      <c r="A50" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="B50" s="28" t="s">
         <v>92</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -3278,11 +4232,10 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0050</v>
-      </c>
-      <c r="B51" s="6" t="s">
+      <c r="A51" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="B51" s="28" t="s">
         <v>93</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -3299,11 +4252,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0051</v>
-      </c>
-      <c r="B52" s="6" t="s">
+      <c r="A52" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="B52" s="28" t="s">
         <v>94</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -3320,11 +4272,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0052</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="A53" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="B53" s="28" t="s">
         <v>95</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -3341,11 +4292,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0053</v>
-      </c>
-      <c r="B54" s="6" t="s">
+      <c r="A54" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="B54" s="28" t="s">
         <v>96</v>
       </c>
       <c r="C54" s="6" t="s">
@@ -3362,11 +4312,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0054</v>
-      </c>
-      <c r="B55" s="10" t="s">
+      <c r="A55" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="B55" s="29" t="s">
         <v>116</v>
       </c>
       <c r="C55" s="10" t="s">
@@ -3383,11 +4332,10 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0055</v>
-      </c>
-      <c r="B56" s="6" t="s">
+      <c r="A56" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="B56" s="28" t="s">
         <v>118</v>
       </c>
       <c r="C56" s="6" t="s">
@@ -3404,11 +4352,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0056</v>
-      </c>
-      <c r="B57" s="6" t="s">
+      <c r="A57" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="B57" s="28" t="s">
         <v>120</v>
       </c>
       <c r="C57" s="6" t="s">
@@ -3425,11 +4372,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0057</v>
-      </c>
-      <c r="B58" s="6" t="s">
+      <c r="A58" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="B58" s="28" t="s">
         <v>121</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -3446,11 +4392,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0058</v>
-      </c>
-      <c r="B59" s="6" t="s">
+      <c r="A59" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="B59" s="28" t="s">
         <v>123</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -3467,11 +4412,10 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0059</v>
-      </c>
-      <c r="B60" s="6" t="s">
+      <c r="A60" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B60" s="28" t="s">
         <v>125</v>
       </c>
       <c r="C60" s="6" t="s">
@@ -3488,11 +4432,10 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0060</v>
-      </c>
-      <c r="B61" s="6" t="s">
+      <c r="A61" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="B61" s="28" t="s">
         <v>127</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -3509,11 +4452,10 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0061</v>
-      </c>
-      <c r="B62" s="6" t="s">
+      <c r="A62" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="B62" s="28" t="s">
         <v>129</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -3530,11 +4472,10 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0062</v>
-      </c>
-      <c r="B63" s="6" t="s">
+      <c r="A63" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="B63" s="28" t="s">
         <v>350</v>
       </c>
       <c r="C63" s="6" t="s">
@@ -3551,11 +4492,10 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0063</v>
-      </c>
-      <c r="B64" s="6" t="s">
+      <c r="A64" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="B64" s="28" t="s">
         <v>132</v>
       </c>
       <c r="C64" s="6" t="s">
@@ -3572,11 +4512,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0064</v>
-      </c>
-      <c r="B65" s="6" t="s">
+      <c r="A65" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="B65" s="28" t="s">
         <v>134</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -3593,11 +4532,10 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="str">
-        <f t="shared" ref="A66:A129" si="1">TEXT(ROW()-1, "0000")</f>
-        <v>0065</v>
-      </c>
-      <c r="B66" s="6" t="s">
+      <c r="A66" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B66" s="28" t="s">
         <v>135</v>
       </c>
       <c r="C66" s="6" t="s">
@@ -3614,11 +4552,10 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0066</v>
-      </c>
-      <c r="B67" s="6" t="s">
+      <c r="A67" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="B67" s="28" t="s">
         <v>136</v>
       </c>
       <c r="C67" s="6" t="s">
@@ -3635,11 +4572,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0067</v>
-      </c>
-      <c r="B68" s="6" t="s">
+      <c r="A68" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="B68" s="28" t="s">
         <v>137</v>
       </c>
       <c r="C68" s="6" t="s">
@@ -3656,11 +4592,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0068</v>
-      </c>
-      <c r="B69" s="6" t="s">
+      <c r="A69" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B69" s="28" t="s">
         <v>138</v>
       </c>
       <c r="C69" s="6" t="s">
@@ -3677,11 +4612,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0069</v>
-      </c>
-      <c r="B70" s="6" t="s">
+      <c r="A70" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="B70" s="28" t="s">
         <v>140</v>
       </c>
       <c r="C70" s="6" t="s">
@@ -3698,11 +4632,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0070</v>
-      </c>
-      <c r="B71" s="6" t="s">
+      <c r="A71" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="B71" s="28" t="s">
         <v>142</v>
       </c>
       <c r="C71" s="6" t="s">
@@ -3719,11 +4652,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0071</v>
-      </c>
-      <c r="B72" s="6" t="s">
+      <c r="A72" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="B72" s="28" t="s">
         <v>143</v>
       </c>
       <c r="C72" s="6" t="s">
@@ -3740,11 +4672,10 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0072</v>
-      </c>
-      <c r="B73" s="6" t="s">
+      <c r="A73" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="B73" s="28" t="s">
         <v>145</v>
       </c>
       <c r="C73" s="6" t="s">
@@ -3761,11 +4692,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0073</v>
-      </c>
-      <c r="B74" s="6" t="s">
+      <c r="A74" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="B74" s="28" t="s">
         <v>351</v>
       </c>
       <c r="C74" s="6" t="s">
@@ -3782,11 +4712,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0074</v>
-      </c>
-      <c r="B75" s="6" t="s">
+      <c r="A75" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="B75" s="28" t="s">
         <v>148</v>
       </c>
       <c r="C75" s="6" t="s">
@@ -3803,11 +4732,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0075</v>
-      </c>
-      <c r="B76" s="6" t="s">
+      <c r="A76" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="B76" s="28" t="s">
         <v>150</v>
       </c>
       <c r="C76" s="6" t="s">
@@ -3824,11 +4752,10 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0076</v>
-      </c>
-      <c r="B77" s="6" t="s">
+      <c r="A77" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="B77" s="28" t="s">
         <v>152</v>
       </c>
       <c r="C77" s="6" t="s">
@@ -3845,11 +4772,10 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0077</v>
-      </c>
-      <c r="B78" s="6" t="s">
+      <c r="A78" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="B78" s="28" t="s">
         <v>154</v>
       </c>
       <c r="C78" s="6" t="s">
@@ -3866,11 +4792,10 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0078</v>
-      </c>
-      <c r="B79" s="6" t="s">
+      <c r="A79" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="B79" s="28" t="s">
         <v>156</v>
       </c>
       <c r="C79" s="6" t="s">
@@ -3887,11 +4812,10 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0079</v>
-      </c>
-      <c r="B80" s="6" t="s">
+      <c r="A80" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="B80" s="28" t="s">
         <v>158</v>
       </c>
       <c r="C80" s="6" t="s">
@@ -3908,11 +4832,10 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0080</v>
-      </c>
-      <c r="B81" s="6" t="s">
+      <c r="A81" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="B81" s="28" t="s">
         <v>159</v>
       </c>
       <c r="C81" s="6" t="s">
@@ -3929,11 +4852,10 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0081</v>
-      </c>
-      <c r="B82" s="6" t="s">
+      <c r="A82" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="B82" s="28" t="s">
         <v>161</v>
       </c>
       <c r="C82" s="6" t="s">
@@ -3950,11 +4872,10 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0082</v>
-      </c>
-      <c r="B83" s="6" t="s">
+      <c r="A83" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="B83" s="28" t="s">
         <v>163</v>
       </c>
       <c r="C83" s="6" t="s">
@@ -3971,11 +4892,10 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0083</v>
-      </c>
-      <c r="B84" s="6" t="s">
+      <c r="A84" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="B84" s="28" t="s">
         <v>165</v>
       </c>
       <c r="C84" s="6" t="s">
@@ -3992,11 +4912,10 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0084</v>
-      </c>
-      <c r="B85" s="6" t="s">
+      <c r="A85" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="B85" s="28" t="s">
         <v>167</v>
       </c>
       <c r="C85" s="6" t="s">
@@ -4013,11 +4932,10 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0085</v>
-      </c>
-      <c r="B86" s="6" t="s">
+      <c r="A86" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="B86" s="28" t="s">
         <v>169</v>
       </c>
       <c r="C86" s="6" t="s">
@@ -4034,11 +4952,10 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0086</v>
-      </c>
-      <c r="B87" s="6" t="s">
+      <c r="A87" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="B87" s="28" t="s">
         <v>171</v>
       </c>
       <c r="C87" s="6" t="s">
@@ -4055,11 +4972,10 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0087</v>
-      </c>
-      <c r="B88" s="6" t="s">
+      <c r="A88" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="B88" s="28" t="s">
         <v>174</v>
       </c>
       <c r="C88" s="6" t="s">
@@ -4076,11 +4992,10 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0088</v>
-      </c>
-      <c r="B89" s="6" t="s">
+      <c r="A89" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="B89" s="28" t="s">
         <v>176</v>
       </c>
       <c r="C89" s="6" t="s">
@@ -4097,11 +5012,10 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0089</v>
-      </c>
-      <c r="B90" s="6" t="s">
+      <c r="A90" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="B90" s="28" t="s">
         <v>178</v>
       </c>
       <c r="C90" s="6" t="s">
@@ -4118,11 +5032,10 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0090</v>
-      </c>
-      <c r="B91" s="6" t="s">
+      <c r="A91" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="B91" s="28" t="s">
         <v>180</v>
       </c>
       <c r="C91" s="6" t="s">
@@ -4139,11 +5052,10 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0091</v>
-      </c>
-      <c r="B92" s="6" t="s">
+      <c r="A92" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="B92" s="28" t="s">
         <v>182</v>
       </c>
       <c r="C92" s="6" t="s">
@@ -4160,11 +5072,10 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0092</v>
-      </c>
-      <c r="B93" s="6" t="s">
+      <c r="A93" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="B93" s="28" t="s">
         <v>184</v>
       </c>
       <c r="C93" s="6" t="s">
@@ -4181,11 +5092,10 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0093</v>
-      </c>
-      <c r="B94" s="6" t="s">
+      <c r="A94" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="B94" s="28" t="s">
         <v>185</v>
       </c>
       <c r="C94" s="6" t="s">
@@ -4202,11 +5112,10 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0094</v>
-      </c>
-      <c r="B95" s="6" t="s">
+      <c r="A95" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="B95" s="28" t="s">
         <v>187</v>
       </c>
       <c r="C95" s="6" t="s">
@@ -4223,11 +5132,10 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0095</v>
-      </c>
-      <c r="B96" s="6" t="s">
+      <c r="A96" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="B96" s="28" t="s">
         <v>188</v>
       </c>
       <c r="C96" s="6" t="s">
@@ -4244,11 +5152,10 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0096</v>
-      </c>
-      <c r="B97" s="6" t="s">
+      <c r="A97" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="B97" s="28" t="s">
         <v>190</v>
       </c>
       <c r="C97" s="6" t="s">
@@ -4265,11 +5172,10 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0097</v>
-      </c>
-      <c r="B98" s="6" t="s">
+      <c r="A98" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="B98" s="28" t="s">
         <v>192</v>
       </c>
       <c r="C98" s="6" t="s">
@@ -4286,11 +5192,10 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0098</v>
-      </c>
-      <c r="B99" s="6" t="s">
+      <c r="A99" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="B99" s="28" t="s">
         <v>194</v>
       </c>
       <c r="C99" s="6" t="s">
@@ -4307,11 +5212,10 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0099</v>
-      </c>
-      <c r="B100" s="6" t="s">
+      <c r="A100" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B100" s="28" t="s">
         <v>195</v>
       </c>
       <c r="C100" s="6" t="s">
@@ -4328,11 +5232,10 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0100</v>
-      </c>
-      <c r="B101" s="6" t="s">
+      <c r="A101" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="B101" s="28" t="s">
         <v>197</v>
       </c>
       <c r="C101" s="6" t="s">
@@ -4349,11 +5252,10 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0101</v>
-      </c>
-      <c r="B102" s="6" t="s">
+      <c r="A102" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="B102" s="28" t="s">
         <v>352</v>
       </c>
       <c r="C102" s="6" t="s">
@@ -4370,11 +5272,10 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0102</v>
-      </c>
-      <c r="B103" s="6" t="s">
+      <c r="A103" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="B103" s="28" t="s">
         <v>201</v>
       </c>
       <c r="C103" s="6" t="s">
@@ -4391,11 +5292,10 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0103</v>
-      </c>
-      <c r="B104" s="6" t="s">
+      <c r="A104" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="B104" s="28" t="s">
         <v>203</v>
       </c>
       <c r="C104" s="6" t="s">
@@ -4412,11 +5312,10 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0104</v>
-      </c>
-      <c r="B105" s="6" t="s">
+      <c r="A105" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="B105" s="28" t="s">
         <v>205</v>
       </c>
       <c r="C105" s="6" t="s">
@@ -4433,11 +5332,10 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0105</v>
-      </c>
-      <c r="B106" s="6" t="s">
+      <c r="A106" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="B106" s="28" t="s">
         <v>207</v>
       </c>
       <c r="C106" s="6" t="s">
@@ -4454,11 +5352,10 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0106</v>
-      </c>
-      <c r="B107" s="6" t="s">
+      <c r="A107" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="B107" s="28" t="s">
         <v>208</v>
       </c>
       <c r="C107" s="6" t="s">
@@ -4475,11 +5372,10 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0107</v>
-      </c>
-      <c r="B108" s="6" t="s">
+      <c r="A108" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="B108" s="28" t="s">
         <v>210</v>
       </c>
       <c r="C108" s="6" t="s">
@@ -4496,11 +5392,10 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0108</v>
-      </c>
-      <c r="B109" s="6" t="s">
+      <c r="A109" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="B109" s="28" t="s">
         <v>212</v>
       </c>
       <c r="C109" s="6" t="s">
@@ -4517,11 +5412,10 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0109</v>
-      </c>
-      <c r="B110" s="6" t="s">
+      <c r="A110" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="B110" s="28" t="s">
         <v>213</v>
       </c>
       <c r="C110" s="6" t="s">
@@ -4538,11 +5432,10 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0110</v>
-      </c>
-      <c r="B111" s="6" t="s">
+      <c r="A111" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="B111" s="28" t="s">
         <v>215</v>
       </c>
       <c r="C111" s="6" t="s">
@@ -4559,11 +5452,10 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0111</v>
-      </c>
-      <c r="B112" s="6" t="s">
+      <c r="A112" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B112" s="28" t="s">
         <v>217</v>
       </c>
       <c r="C112" s="6" t="s">
@@ -4580,11 +5472,10 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0112</v>
-      </c>
-      <c r="B113" s="6" t="s">
+      <c r="A113" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="B113" s="28" t="s">
         <v>219</v>
       </c>
       <c r="C113" s="6" t="s">
@@ -4601,11 +5492,10 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0113</v>
-      </c>
-      <c r="B114" s="6" t="s">
+      <c r="A114" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="B114" s="28" t="s">
         <v>221</v>
       </c>
       <c r="C114" s="6" t="s">
@@ -4622,11 +5512,10 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0114</v>
-      </c>
-      <c r="B115" s="6" t="s">
+      <c r="A115" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="B115" s="28" t="s">
         <v>223</v>
       </c>
       <c r="C115" s="6" t="s">
@@ -4643,11 +5532,10 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0115</v>
-      </c>
-      <c r="B116" s="6" t="s">
+      <c r="A116" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="B116" s="28" t="s">
         <v>224</v>
       </c>
       <c r="C116" s="6" t="s">
@@ -4664,11 +5552,10 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0116</v>
-      </c>
-      <c r="B117" s="6" t="s">
+      <c r="A117" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="B117" s="28" t="s">
         <v>226</v>
       </c>
       <c r="C117" s="6" t="s">
@@ -4685,11 +5572,10 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0117</v>
-      </c>
-      <c r="B118" s="6" t="s">
+      <c r="A118" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="B118" s="28" t="s">
         <v>228</v>
       </c>
       <c r="C118" s="6" t="s">
@@ -4706,11 +5592,10 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0118</v>
-      </c>
-      <c r="B119" s="6" t="s">
+      <c r="A119" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="B119" s="28" t="s">
         <v>230</v>
       </c>
       <c r="C119" s="6" t="s">
@@ -4727,11 +5612,10 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0119</v>
-      </c>
-      <c r="B120" s="6" t="s">
+      <c r="A120" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="B120" s="28" t="s">
         <v>232</v>
       </c>
       <c r="C120" s="6" t="s">
@@ -4748,11 +5632,10 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0120</v>
-      </c>
-      <c r="B121" s="6" t="s">
+      <c r="A121" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="B121" s="28" t="s">
         <v>234</v>
       </c>
       <c r="C121" s="6" t="s">
@@ -4769,11 +5652,10 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0121</v>
-      </c>
-      <c r="B122" s="6" t="s">
+      <c r="A122" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="B122" s="28" t="s">
         <v>236</v>
       </c>
       <c r="C122" s="6" t="s">
@@ -4790,11 +5672,10 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0122</v>
-      </c>
-      <c r="B123" s="6" t="s">
+      <c r="A123" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="B123" s="28" t="s">
         <v>238</v>
       </c>
       <c r="C123" s="6" t="s">
@@ -4811,11 +5692,10 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0123</v>
-      </c>
-      <c r="B124" s="6" t="s">
+      <c r="A124" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="B124" s="28" t="s">
         <v>240</v>
       </c>
       <c r="C124" s="6" t="s">
@@ -4832,11 +5712,10 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0124</v>
-      </c>
-      <c r="B125" s="6" t="s">
+      <c r="A125" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="B125" s="28" t="s">
         <v>242</v>
       </c>
       <c r="C125" s="6" t="s">
@@ -4853,11 +5732,10 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0125</v>
-      </c>
-      <c r="B126" s="6" t="s">
+      <c r="A126" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="B126" s="28" t="s">
         <v>244</v>
       </c>
       <c r="C126" s="6" t="s">
@@ -4874,11 +5752,10 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0126</v>
-      </c>
-      <c r="B127" s="6" t="s">
+      <c r="A127" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="B127" s="28" t="s">
         <v>246</v>
       </c>
       <c r="C127" s="6" t="s">
@@ -4895,11 +5772,10 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0127</v>
-      </c>
-      <c r="B128" s="6" t="s">
+      <c r="A128" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="B128" s="28" t="s">
         <v>248</v>
       </c>
       <c r="C128" s="6" t="s">
@@ -4916,11 +5792,10 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0128</v>
-      </c>
-      <c r="B129" s="6" t="s">
+      <c r="A129" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="B129" s="28" t="s">
         <v>250</v>
       </c>
       <c r="C129" s="6" t="s">
@@ -4937,11 +5812,10 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="6" t="str">
-        <f t="shared" ref="A130:A193" si="2">TEXT(ROW()-1, "0000")</f>
-        <v>0129</v>
-      </c>
-      <c r="B130" s="6" t="s">
+      <c r="A130" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="B130" s="28" t="s">
         <v>252</v>
       </c>
       <c r="C130" s="6" t="s">
@@ -4958,11 +5832,10 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0130</v>
-      </c>
-      <c r="B131" s="6" t="s">
+      <c r="A131" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="B131" s="28" t="s">
         <v>254</v>
       </c>
       <c r="C131" s="6" t="s">
@@ -4979,11 +5852,10 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0131</v>
-      </c>
-      <c r="B132" s="6" t="s">
+      <c r="A132" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="B132" s="28" t="s">
         <v>256</v>
       </c>
       <c r="C132" s="6" t="s">
@@ -5000,11 +5872,10 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0132</v>
-      </c>
-      <c r="B133" s="6" t="s">
+      <c r="A133" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="B133" s="28" t="s">
         <v>258</v>
       </c>
       <c r="C133" s="6" t="s">
@@ -5021,11 +5892,10 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0133</v>
-      </c>
-      <c r="B134" s="6" t="s">
+      <c r="A134" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="B134" s="28" t="s">
         <v>260</v>
       </c>
       <c r="C134" s="6" t="s">
@@ -5042,11 +5912,10 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0134</v>
-      </c>
-      <c r="B135" s="6" t="s">
+      <c r="A135" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="B135" s="28" t="s">
         <v>262</v>
       </c>
       <c r="C135" s="6" t="s">
@@ -5063,11 +5932,10 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0135</v>
-      </c>
-      <c r="B136" s="6" t="s">
+      <c r="A136" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="B136" s="28" t="s">
         <v>264</v>
       </c>
       <c r="C136" s="6" t="s">
@@ -5084,11 +5952,10 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0136</v>
-      </c>
-      <c r="B137" s="6" t="s">
+      <c r="A137" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="B137" s="28" t="s">
         <v>266</v>
       </c>
       <c r="C137" s="6" t="s">
@@ -5105,11 +5972,10 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0137</v>
-      </c>
-      <c r="B138" s="6" t="s">
+      <c r="A138" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="B138" s="28" t="s">
         <v>268</v>
       </c>
       <c r="C138" s="6" t="s">
@@ -5126,11 +5992,10 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0138</v>
-      </c>
-      <c r="B139" s="6" t="s">
+      <c r="A139" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="B139" s="28" t="s">
         <v>270</v>
       </c>
       <c r="C139" s="6" t="s">
@@ -5147,11 +6012,10 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0139</v>
-      </c>
-      <c r="B140" s="6" t="s">
+      <c r="A140" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="B140" s="28" t="s">
         <v>272</v>
       </c>
       <c r="C140" s="6" t="s">
@@ -5168,11 +6032,10 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0140</v>
-      </c>
-      <c r="B141" s="6" t="s">
+      <c r="A141" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="B141" s="28" t="s">
         <v>274</v>
       </c>
       <c r="C141" s="6" t="s">
@@ -5189,11 +6052,10 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0141</v>
-      </c>
-      <c r="B142" s="6" t="s">
+      <c r="A142" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="B142" s="28" t="s">
         <v>276</v>
       </c>
       <c r="C142" s="6" t="s">
@@ -5210,11 +6072,10 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0142</v>
-      </c>
-      <c r="B143" s="6" t="s">
+      <c r="A143" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="B143" s="28" t="s">
         <v>278</v>
       </c>
       <c r="C143" s="6" t="s">
@@ -5231,11 +6092,10 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0143</v>
-      </c>
-      <c r="B144" s="6" t="s">
+      <c r="A144" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="B144" s="28" t="s">
         <v>280</v>
       </c>
       <c r="C144" s="6" t="s">
@@ -5252,11 +6112,10 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0144</v>
-      </c>
-      <c r="B145" s="6" t="s">
+      <c r="A145" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="B145" s="28" t="s">
         <v>282</v>
       </c>
       <c r="C145" s="6" t="s">
@@ -5273,11 +6132,10 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0145</v>
-      </c>
-      <c r="B146" s="6" t="s">
+      <c r="A146" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="B146" s="28" t="s">
         <v>284</v>
       </c>
       <c r="C146" s="6" t="s">
@@ -5294,11 +6152,10 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0146</v>
-      </c>
-      <c r="B147" s="6" t="s">
+      <c r="A147" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="B147" s="28" t="s">
         <v>286</v>
       </c>
       <c r="C147" s="6" t="s">
@@ -5315,11 +6172,10 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0147</v>
-      </c>
-      <c r="B148" s="6" t="s">
+      <c r="A148" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="B148" s="28" t="s">
         <v>288</v>
       </c>
       <c r="C148" s="6" t="s">
@@ -5336,11 +6192,10 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0148</v>
-      </c>
-      <c r="B149" s="6" t="s">
+      <c r="A149" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B149" s="28" t="s">
         <v>290</v>
       </c>
       <c r="C149" s="6" t="s">
@@ -5357,11 +6212,10 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0149</v>
-      </c>
-      <c r="B150" s="6" t="s">
+      <c r="A150" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="B150" s="28" t="s">
         <v>292</v>
       </c>
       <c r="C150" s="6" t="s">
@@ -5378,11 +6232,10 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0150</v>
-      </c>
-      <c r="B151" s="6" t="s">
+      <c r="A151" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="B151" s="28" t="s">
         <v>294</v>
       </c>
       <c r="C151" s="6" t="s">
@@ -5399,11 +6252,10 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0151</v>
-      </c>
-      <c r="B152" s="6" t="s">
+      <c r="A152" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="B152" s="28" t="s">
         <v>296</v>
       </c>
       <c r="C152" s="6" t="s">
@@ -5420,11 +6272,10 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0152</v>
-      </c>
-      <c r="B153" s="6" t="s">
+      <c r="A153" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="B153" s="28" t="s">
         <v>298</v>
       </c>
       <c r="C153" s="6" t="s">
@@ -5441,11 +6292,10 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0153</v>
-      </c>
-      <c r="B154" s="6" t="s">
+      <c r="A154" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="B154" s="28" t="s">
         <v>300</v>
       </c>
       <c r="C154" s="6" t="s">
@@ -5462,11 +6312,10 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0154</v>
-      </c>
-      <c r="B155" s="6" t="s">
+      <c r="A155" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B155" s="28" t="s">
         <v>302</v>
       </c>
       <c r="C155" s="6" t="s">
@@ -5483,11 +6332,10 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0155</v>
-      </c>
-      <c r="B156" s="6" t="s">
+      <c r="A156" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="B156" s="28" t="s">
         <v>304</v>
       </c>
       <c r="C156" s="6" t="s">
@@ -5504,11 +6352,10 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0156</v>
-      </c>
-      <c r="B157" s="6" t="s">
+      <c r="A157" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="B157" s="28" t="s">
         <v>306</v>
       </c>
       <c r="C157" s="6" t="s">
@@ -5525,11 +6372,10 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0157</v>
-      </c>
-      <c r="B158" s="6" t="s">
+      <c r="A158" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="B158" s="28" t="s">
         <v>308</v>
       </c>
       <c r="C158" s="6" t="s">
@@ -5546,11 +6392,10 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0158</v>
-      </c>
-      <c r="B159" s="6" t="s">
+      <c r="A159" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="B159" s="28" t="s">
         <v>310</v>
       </c>
       <c r="C159" s="6" t="s">
@@ -5567,11 +6412,10 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0159</v>
-      </c>
-      <c r="B160" s="6" t="s">
+      <c r="A160" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="B160" s="28" t="s">
         <v>312</v>
       </c>
       <c r="C160" s="6" t="s">
@@ -5588,11 +6432,10 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0160</v>
-      </c>
-      <c r="B161" s="6" t="s">
+      <c r="A161" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B161" s="28" t="s">
         <v>314</v>
       </c>
       <c r="C161" s="6" t="s">
@@ -5609,11 +6452,10 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0161</v>
-      </c>
-      <c r="B162" s="6" t="s">
+      <c r="A162" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B162" s="28" t="s">
         <v>316</v>
       </c>
       <c r="C162" s="6" t="s">
@@ -5630,11 +6472,10 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0162</v>
-      </c>
-      <c r="B163" s="6" t="s">
+      <c r="A163" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="B163" s="28" t="s">
         <v>318</v>
       </c>
       <c r="C163" s="6" t="s">
@@ -5651,11 +6492,10 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0163</v>
-      </c>
-      <c r="B164" s="6" t="s">
+      <c r="A164" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="B164" s="28" t="s">
         <v>320</v>
       </c>
       <c r="C164" s="6" t="s">
@@ -5672,11 +6512,10 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0164</v>
-      </c>
-      <c r="B165" s="6" t="s">
+      <c r="A165" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="B165" s="28" t="s">
         <v>322</v>
       </c>
       <c r="C165" s="6" t="s">
@@ -5693,11 +6532,10 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0165</v>
-      </c>
-      <c r="B166" s="6" t="s">
+      <c r="A166" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="B166" s="28" t="s">
         <v>324</v>
       </c>
       <c r="C166" s="6" t="s">
@@ -5714,11 +6552,10 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0166</v>
-      </c>
-      <c r="B167" s="6" t="s">
+      <c r="A167" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="B167" s="28" t="s">
         <v>326</v>
       </c>
       <c r="C167" s="6" t="s">
@@ -5735,11 +6572,10 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0167</v>
-      </c>
-      <c r="B168" s="6" t="s">
+      <c r="A168" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="B168" s="28" t="s">
         <v>328</v>
       </c>
       <c r="C168" s="6" t="s">
@@ -5756,11 +6592,10 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0168</v>
-      </c>
-      <c r="B169" s="6" t="s">
+      <c r="A169" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="B169" s="28" t="s">
         <v>330</v>
       </c>
       <c r="C169" s="6" t="s">
@@ -5777,11 +6612,10 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0169</v>
-      </c>
-      <c r="B170" s="6" t="s">
+      <c r="A170" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="B170" s="28" t="s">
         <v>332</v>
       </c>
       <c r="C170" s="6" t="s">
@@ -5798,11 +6632,10 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0170</v>
-      </c>
-      <c r="B171" s="6" t="s">
+      <c r="A171" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B171" s="28" t="s">
         <v>334</v>
       </c>
       <c r="C171" s="6" t="s">
@@ -5819,11 +6652,10 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0171</v>
-      </c>
-      <c r="B172" s="6" t="s">
+      <c r="A172" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="B172" s="28" t="s">
         <v>336</v>
       </c>
       <c r="C172" s="6" t="s">
@@ -5840,11 +6672,10 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0172</v>
-      </c>
-      <c r="B173" s="6" t="s">
+      <c r="A173" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="B173" s="28" t="s">
         <v>338</v>
       </c>
       <c r="C173" s="6" t="s">
@@ -5861,11 +6692,10 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0173</v>
-      </c>
-      <c r="B174" s="6" t="s">
+      <c r="A174" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="B174" s="28" t="s">
         <v>340</v>
       </c>
       <c r="C174" s="6" t="s">
@@ -5882,11 +6712,10 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0174</v>
-      </c>
-      <c r="B175" s="6" t="s">
+      <c r="A175" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="B175" s="28" t="s">
         <v>342</v>
       </c>
       <c r="C175" s="6" t="s">
@@ -5903,11 +6732,10 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0175</v>
-      </c>
-      <c r="B176" s="6" t="s">
+      <c r="A176" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="B176" s="28" t="s">
         <v>344</v>
       </c>
       <c r="C176" s="6" t="s">
@@ -5924,11 +6752,10 @@
       </c>
     </row>
     <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0176</v>
-      </c>
-      <c r="B177" s="6" t="s">
+      <c r="A177" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="B177" s="28" t="s">
         <v>346</v>
       </c>
       <c r="C177" s="6" t="s">
@@ -5945,11 +6772,10 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0177</v>
-      </c>
-      <c r="B178" s="6" t="s">
+      <c r="A178" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="B178" s="28" t="s">
         <v>347</v>
       </c>
       <c r="C178" s="6" t="s">
@@ -5966,11 +6792,10 @@
       </c>
     </row>
     <row r="179" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0178</v>
-      </c>
-      <c r="B179" s="6" t="s">
+      <c r="A179" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="B179" s="28" t="s">
         <v>353</v>
       </c>
       <c r="C179" s="6" t="s">
@@ -5987,11 +6812,10 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0179</v>
-      </c>
-      <c r="B180" s="6" t="s">
+      <c r="A180" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="B180" s="28" t="s">
         <v>355</v>
       </c>
       <c r="C180" s="6" t="s">
@@ -6008,11 +6832,10 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0180</v>
-      </c>
-      <c r="B181" s="6" t="s">
+      <c r="A181" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="B181" s="28" t="s">
         <v>357</v>
       </c>
       <c r="C181" s="6" t="s">
@@ -6029,11 +6852,10 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0181</v>
-      </c>
-      <c r="B182" s="6" t="s">
+      <c r="A182" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="B182" s="28" t="s">
         <v>358</v>
       </c>
       <c r="C182" s="6" t="s">
@@ -6050,11 +6872,10 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0182</v>
-      </c>
-      <c r="B183" s="6" t="s">
+      <c r="A183" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="B183" s="28" t="s">
         <v>360</v>
       </c>
       <c r="C183" s="6" t="s">
@@ -6071,11 +6892,10 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0183</v>
-      </c>
-      <c r="B184" s="6" t="s">
+      <c r="A184" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="B184" s="28" t="s">
         <v>362</v>
       </c>
       <c r="C184" s="6" t="s">
@@ -6092,11 +6912,10 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0184</v>
-      </c>
-      <c r="B185" s="6" t="s">
+      <c r="A185" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="B185" s="28" t="s">
         <v>364</v>
       </c>
       <c r="C185" s="6" t="s">
@@ -6113,11 +6932,10 @@
       </c>
     </row>
     <row r="186" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0185</v>
-      </c>
-      <c r="B186" s="14" t="s">
+      <c r="A186" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="B186" s="27" t="s">
         <v>366</v>
       </c>
       <c r="C186" s="14" t="s">
@@ -6134,11 +6952,10 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0186</v>
-      </c>
-      <c r="B187" s="14" t="s">
+      <c r="A187" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="B187" s="27" t="s">
         <v>368</v>
       </c>
       <c r="C187" s="14" t="s">
@@ -6155,11 +6972,10 @@
       </c>
     </row>
     <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A188" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0187</v>
-      </c>
-      <c r="B188" s="6" t="s">
+      <c r="A188" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="B188" s="28" t="s">
         <v>370</v>
       </c>
       <c r="C188" s="6" t="s">
@@ -6176,11 +6992,10 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0188</v>
-      </c>
-      <c r="B189" s="6" t="s">
+      <c r="A189" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="B189" s="28" t="s">
         <v>372</v>
       </c>
       <c r="C189" s="6" t="s">
@@ -6197,11 +7012,10 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0189</v>
-      </c>
-      <c r="B190" s="6" t="s">
+      <c r="A190" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="B190" s="28" t="s">
         <v>374</v>
       </c>
       <c r="C190" s="6" t="s">
@@ -6218,11 +7032,10 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0190</v>
-      </c>
-      <c r="B191" s="6" t="s">
+      <c r="A191" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="B191" s="28" t="s">
         <v>376</v>
       </c>
       <c r="C191" s="6" t="s">
@@ -6239,11 +7052,10 @@
       </c>
     </row>
     <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0191</v>
-      </c>
-      <c r="B192" s="6" t="s">
+      <c r="A192" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="B192" s="28" t="s">
         <v>378</v>
       </c>
       <c r="C192" s="6" t="s">
@@ -6260,11 +7072,10 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0192</v>
-      </c>
-      <c r="B193" s="6" t="s">
+      <c r="A193" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="B193" s="28" t="s">
         <v>380</v>
       </c>
       <c r="C193" s="6" t="s">
@@ -6281,11 +7092,10 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="6" t="str">
-        <f t="shared" ref="A194:A257" si="3">TEXT(ROW()-1, "0000")</f>
-        <v>0193</v>
-      </c>
-      <c r="B194" s="6" t="s">
+      <c r="A194" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="B194" s="28" t="s">
         <v>383</v>
       </c>
       <c r="C194" s="6" t="s">
@@ -6302,11 +7112,10 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0194</v>
-      </c>
-      <c r="B195" s="6" t="s">
+      <c r="A195" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="B195" s="28" t="s">
         <v>384</v>
       </c>
       <c r="C195" s="6" t="s">
@@ -6323,11 +7132,10 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0195</v>
-      </c>
-      <c r="B196" s="6" t="s">
+      <c r="A196" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="B196" s="28" t="s">
         <v>386</v>
       </c>
       <c r="C196" s="6" t="s">
@@ -6344,11 +7152,10 @@
       </c>
     </row>
     <row r="197" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0196</v>
-      </c>
-      <c r="B197" s="6" t="s">
+      <c r="A197" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="B197" s="28" t="s">
         <v>388</v>
       </c>
       <c r="C197" s="6" t="s">
@@ -6365,11 +7172,10 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0197</v>
-      </c>
-      <c r="B198" s="6" t="s">
+      <c r="A198" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="B198" s="28" t="s">
         <v>390</v>
       </c>
       <c r="C198" s="6" t="s">
@@ -6386,11 +7192,10 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0198</v>
-      </c>
-      <c r="B199" s="6" t="s">
+      <c r="A199" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="B199" s="28" t="s">
         <v>392</v>
       </c>
       <c r="C199" s="6" t="s">
@@ -6407,11 +7212,10 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0199</v>
-      </c>
-      <c r="B200" s="6" t="s">
+      <c r="A200" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="B200" s="28" t="s">
         <v>394</v>
       </c>
       <c r="C200" s="6" t="s">
@@ -6428,11 +7232,10 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0200</v>
-      </c>
-      <c r="B201" s="6" t="s">
+      <c r="A201" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B201" s="28" t="s">
         <v>396</v>
       </c>
       <c r="C201" s="6" t="s">
@@ -6449,11 +7252,10 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0201</v>
-      </c>
-      <c r="B202" s="6" t="s">
+      <c r="A202" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="B202" s="28" t="s">
         <v>397</v>
       </c>
       <c r="C202" s="6" t="s">
@@ -6470,11 +7272,10 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0202</v>
-      </c>
-      <c r="B203" s="6" t="s">
+      <c r="A203" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="B203" s="28" t="s">
         <v>398</v>
       </c>
       <c r="C203" s="6" t="s">
@@ -6491,11 +7292,10 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0203</v>
-      </c>
-      <c r="B204" s="6" t="s">
+      <c r="A204" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="B204" s="28" t="s">
         <v>399</v>
       </c>
       <c r="C204" s="6" t="s">
@@ -6512,11 +7312,10 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0204</v>
-      </c>
-      <c r="B205" s="6" t="s">
+      <c r="A205" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="B205" s="28" t="s">
         <v>400</v>
       </c>
       <c r="C205" s="6" t="s">
@@ -6533,11 +7332,10 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0205</v>
-      </c>
-      <c r="B206" s="6" t="s">
+      <c r="A206" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="B206" s="28" t="s">
         <v>401</v>
       </c>
       <c r="C206" s="6" t="s">
@@ -6554,11 +7352,10 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0206</v>
-      </c>
-      <c r="B207" s="6" t="s">
+      <c r="A207" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="B207" s="28" t="s">
         <v>402</v>
       </c>
       <c r="C207" s="6" t="s">
@@ -6575,11 +7372,10 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0207</v>
-      </c>
-      <c r="B208" s="6" t="s">
+      <c r="A208" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="B208" s="28" t="s">
         <v>403</v>
       </c>
       <c r="C208" s="6" t="s">
@@ -6596,11 +7392,10 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0208</v>
-      </c>
-      <c r="B209" s="6" t="s">
+      <c r="A209" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="B209" s="28" t="s">
         <v>404</v>
       </c>
       <c r="C209" s="6" t="s">
@@ -6617,11 +7412,10 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0209</v>
-      </c>
-      <c r="B210" s="6" t="s">
+      <c r="A210" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="B210" s="28" t="s">
         <v>405</v>
       </c>
       <c r="C210" s="6" t="s">
@@ -6638,11 +7432,10 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0210</v>
-      </c>
-      <c r="B211" s="6" t="s">
+      <c r="A211" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="B211" s="28" t="s">
         <v>406</v>
       </c>
       <c r="C211" s="6" t="s">
@@ -6659,11 +7452,10 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0211</v>
-      </c>
-      <c r="B212" s="6" t="s">
+      <c r="A212" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="B212" s="28" t="s">
         <v>408</v>
       </c>
       <c r="C212" s="6" t="s">
@@ -6680,11 +7472,10 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0212</v>
-      </c>
-      <c r="B213" s="6" t="s">
+      <c r="A213" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="B213" s="28" t="s">
         <v>410</v>
       </c>
       <c r="C213" s="6" t="s">
@@ -6701,11 +7492,10 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0213</v>
-      </c>
-      <c r="B214" s="6" t="s">
+      <c r="A214" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="B214" s="28" t="s">
         <v>412</v>
       </c>
       <c r="C214" s="6" t="s">
@@ -6722,11 +7512,10 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0214</v>
-      </c>
-      <c r="B215" s="6" t="s">
+      <c r="A215" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="B215" s="28" t="s">
         <v>414</v>
       </c>
       <c r="C215" s="6" t="s">
@@ -6743,11 +7532,10 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0215</v>
-      </c>
-      <c r="B216" s="6" t="s">
+      <c r="A216" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="B216" s="28" t="s">
         <v>416</v>
       </c>
       <c r="C216" s="6" t="s">
@@ -6764,11 +7552,10 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0216</v>
-      </c>
-      <c r="B217" s="6" t="s">
+      <c r="A217" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="B217" s="28" t="s">
         <v>418</v>
       </c>
       <c r="C217" s="6" t="s">
@@ -6785,11 +7572,10 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0217</v>
-      </c>
-      <c r="B218" s="6" t="s">
+      <c r="A218" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="B218" s="28" t="s">
         <v>420</v>
       </c>
       <c r="C218" s="6" t="s">
@@ -6806,15 +7592,14 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0218</v>
-      </c>
-      <c r="B219" s="4" t="s">
+      <c r="A219" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="B219" s="29" t="s">
         <v>423</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="D219" s="5" t="b">
         <v>1</v>
@@ -6827,15 +7612,14 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0219</v>
-      </c>
-      <c r="B220" s="4" t="s">
+      <c r="A220" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="B220" s="29" t="s">
         <v>424</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="D220" s="5" t="b">
         <v>1</v>
@@ -6848,15 +7632,14 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0220</v>
-      </c>
-      <c r="B221" s="4" t="s">
+      <c r="A221" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="B221" s="29" t="s">
         <v>425</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="D221" s="5" t="b">
         <v>1</v>
@@ -6869,15 +7652,14 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0221</v>
-      </c>
-      <c r="B222" s="4" t="s">
+      <c r="A222" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="B222" s="29" t="s">
         <v>426</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D222" s="5" t="b">
         <v>1</v>
@@ -6890,15 +7672,14 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0222</v>
-      </c>
-      <c r="B223" s="4" t="s">
+      <c r="A223" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="B223" s="29" t="s">
         <v>427</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="D223" s="5" t="b">
         <v>1</v>
@@ -6911,15 +7692,14 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0223</v>
-      </c>
-      <c r="B224" s="4" t="s">
+      <c r="A224" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="B224" s="29" t="s">
         <v>428</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="D224" s="5" t="b">
         <v>1</v>
@@ -6932,15 +7712,14 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0224</v>
-      </c>
-      <c r="B225" s="4" t="s">
+      <c r="A225" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="B225" s="29" t="s">
         <v>429</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="D225" s="5" t="b">
         <v>1</v>
@@ -6953,15 +7732,14 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0225</v>
-      </c>
-      <c r="B226" s="15" t="s">
+      <c r="A226" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="B226" s="30" t="s">
         <v>430</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="D226" s="12" t="b">
         <v>1</v>
@@ -6974,15 +7752,14 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0226</v>
-      </c>
-      <c r="B227" s="4" t="s">
+      <c r="A227" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="B227" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="D227" s="5" t="b">
         <v>1</v>
@@ -6995,15 +7772,14 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0227</v>
-      </c>
-      <c r="B228" s="4" t="s">
+      <c r="A228" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="B228" s="29" t="s">
         <v>432</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="D228" s="5" t="b">
         <v>1</v>
@@ -7016,15 +7792,14 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0228</v>
-      </c>
-      <c r="B229" s="4" t="s">
+      <c r="A229" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="B229" s="29" t="s">
         <v>433</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="D229" s="5" t="b">
         <v>1</v>
@@ -7037,15 +7812,14 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0229</v>
-      </c>
-      <c r="B230" s="4" t="s">
+      <c r="A230" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="B230" s="29" t="s">
         <v>434</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="D230" s="5" t="b">
         <v>1</v>
@@ -7058,15 +7832,14 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0230</v>
-      </c>
-      <c r="B231" s="4" t="s">
+      <c r="A231" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="B231" s="29" t="s">
         <v>435</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="D231" s="5" t="b">
         <v>1</v>
@@ -7079,15 +7852,14 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0231</v>
-      </c>
-      <c r="B232" s="4" t="s">
+      <c r="A232" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="B232" s="29" t="s">
         <v>436</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="D232" s="5" t="b">
         <v>1</v>
@@ -7100,15 +7872,14 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0232</v>
-      </c>
-      <c r="B233" s="4" t="s">
+      <c r="A233" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="B233" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="C233" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>438</v>
       </c>
       <c r="D233" s="5" t="b">
         <v>1</v>
@@ -7121,15 +7892,14 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0233</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>439</v>
+      <c r="A234" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="B234" s="29" t="s">
+        <v>577</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>440</v>
+        <v>582</v>
       </c>
       <c r="D234" s="5" t="b">
         <v>1</v>
@@ -7142,15 +7912,14 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0234</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>441</v>
+      <c r="A235" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="B235" s="29" t="s">
+        <v>576</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>442</v>
+        <v>581</v>
       </c>
       <c r="D235" s="5" t="b">
         <v>1</v>
@@ -7163,15 +7932,14 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0235</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>443</v>
+      <c r="A236" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="B236" s="29" t="s">
+        <v>575</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>444</v>
+        <v>580</v>
       </c>
       <c r="D236" s="5" t="b">
         <v>1</v>
@@ -7183,16 +7951,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A237" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0236</v>
-      </c>
-      <c r="B237" s="20" t="s">
-        <v>445</v>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="B237" s="30" t="s">
+        <v>574</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D237" s="12" t="b">
         <v>1</v>
@@ -7205,15 +7972,14 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0237</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>447</v>
+      <c r="A238" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="B238" s="29" t="s">
+        <v>439</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D238" s="5" t="b">
         <v>0</v>
@@ -7226,15 +7992,14 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0238</v>
-      </c>
-      <c r="B239" s="15" t="s">
-        <v>449</v>
+      <c r="A239" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="B239" s="30" t="s">
+        <v>441</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D239" s="12" t="b">
         <v>0</v>
@@ -7247,15 +8012,14 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0239</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>451</v>
+      <c r="A240" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="B240" s="29" t="s">
+        <v>443</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D240" s="5" t="b">
         <v>0</v>
@@ -7268,15 +8032,14 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0240</v>
-      </c>
-      <c r="B241" s="4" t="s">
-        <v>453</v>
+      <c r="A241" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B241" s="29" t="s">
+        <v>445</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D241" s="5" t="b">
         <v>0</v>
@@ -7289,15 +8052,14 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0241</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>455</v>
+      <c r="A242" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="B242" s="29" t="s">
+        <v>447</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D242" s="5" t="b">
         <v>0</v>
@@ -7310,15 +8072,14 @@
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0242</v>
-      </c>
-      <c r="B243" s="4" t="s">
-        <v>457</v>
+      <c r="A243" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="B243" s="29" t="s">
+        <v>449</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D243" s="5" t="b">
         <v>0</v>
@@ -7331,15 +8092,14 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0243</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>459</v>
+      <c r="A244" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="B244" s="29" t="s">
+        <v>451</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="D244" s="5" t="b">
         <v>0</v>
@@ -7352,15 +8112,14 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0244</v>
-      </c>
-      <c r="B245" s="4" t="s">
-        <v>461</v>
+      <c r="A245" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="B245" s="29" t="s">
+        <v>453</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D245" s="5" t="b">
         <v>0</v>
@@ -7373,15 +8132,14 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0245</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>463</v>
+      <c r="A246" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="B246" s="32" t="s">
+        <v>455</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D246" s="5" t="b">
         <v>0</v>
@@ -7394,15 +8152,14 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0246</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>465</v>
+      <c r="A247" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="B247" s="29" t="s">
+        <v>572</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>466</v>
+        <v>579</v>
       </c>
       <c r="D247" s="5" t="b">
         <v>1</v>
@@ -7415,15 +8172,14 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0247</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>467</v>
+      <c r="A248" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="B248" s="29" t="s">
+        <v>571</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D248" s="5" t="b">
         <v>1</v>
@@ -7436,1521 +8192,1457 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0248</v>
-      </c>
-      <c r="B249" s="22" t="s">
-        <v>475</v>
+      <c r="A249" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="B249" s="31" t="s">
+        <v>464</v>
       </c>
       <c r="C249" s="22" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="D249" s="17" t="b">
         <v>1</v>
       </c>
       <c r="E249" s="13" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="F249" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0249</v>
-      </c>
-      <c r="B250" s="22" t="s">
-        <v>477</v>
+      <c r="A250" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="B250" s="31" t="s">
+        <v>466</v>
       </c>
       <c r="C250" s="22" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="D250" s="17" t="b">
         <v>1</v>
       </c>
       <c r="E250" s="13" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="F250" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A251" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0250</v>
-      </c>
-      <c r="B251" s="22" t="s">
-        <v>479</v>
+      <c r="A251" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="B251" s="31" t="s">
+        <v>468</v>
       </c>
       <c r="C251" s="22" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="D251" s="17" t="b">
         <v>1</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="F251" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0251</v>
-      </c>
-      <c r="B252" s="16" t="s">
-        <v>480</v>
+      <c r="A252" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="B252" s="27" t="s">
+        <v>469</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="D252" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="F252" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A253" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0252</v>
-      </c>
-      <c r="B253" s="14" t="s">
-        <v>482</v>
+      <c r="A253" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="B253" s="27" t="s">
+        <v>471</v>
       </c>
       <c r="C253" s="14" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="D253" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E253" s="14" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="F253" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A254" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0253</v>
-      </c>
-      <c r="B254" s="6" t="s">
+      <c r="A254" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="B254" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="C254" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="D254" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E254" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="F254" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="B255" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="C255" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="D255" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E255" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="F255" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="B256" s="28" t="s">
+        <v>568</v>
+      </c>
+      <c r="C256" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="D256" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E256" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="F256" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="B257" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="C257" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="D257" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E257" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="F257" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="B258" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="C258" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="D258" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E258" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="F258" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="B259" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="C259" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="D259" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E259" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="F259" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="B260" s="28" t="s">
         <v>563</v>
       </c>
-      <c r="C254" s="23" t="s">
+      <c r="C260" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="D260" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E260" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="F260" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="B261" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="C261" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="D261" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E261" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="F261" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="B262" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="C262" s="21" t="s">
         <v>549</v>
-      </c>
-      <c r="D254" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E254" s="18" t="s">
-        <v>550</v>
-      </c>
-      <c r="F254" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0254</v>
-      </c>
-      <c r="B255" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="C255" s="23" t="s">
-        <v>551</v>
-      </c>
-      <c r="D255" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E255" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="F255" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0255</v>
-      </c>
-      <c r="B256" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="C256" s="22" t="s">
-        <v>553</v>
-      </c>
-      <c r="D256" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E256" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="F256" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0256</v>
-      </c>
-      <c r="B257" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="C257" s="23" t="s">
-        <v>555</v>
-      </c>
-      <c r="D257" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E257" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="F257" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="6" t="str">
-        <f t="shared" ref="A258:A320" si="4">TEXT(ROW()-1, "0000")</f>
-        <v>0257</v>
-      </c>
-      <c r="B258" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="C258" s="23" t="s">
-        <v>556</v>
-      </c>
-      <c r="D258" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E258" s="18" t="s">
-        <v>557</v>
-      </c>
-      <c r="F258" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0258</v>
-      </c>
-      <c r="B259" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="C259" s="24" t="s">
-        <v>558</v>
-      </c>
-      <c r="D259" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E259" s="19" t="s">
-        <v>559</v>
-      </c>
-      <c r="F259" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0259</v>
-      </c>
-      <c r="B260" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="C260" s="23" t="s">
-        <v>560</v>
-      </c>
-      <c r="D260" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E260" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="F260" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0260</v>
-      </c>
-      <c r="B261" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="C261" s="23" t="s">
-        <v>561</v>
-      </c>
-      <c r="D261" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E261" s="18" t="s">
-        <v>562</v>
-      </c>
-      <c r="F261" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0261</v>
-      </c>
-      <c r="B262" s="21" t="s">
-        <v>489</v>
-      </c>
-      <c r="C262" s="21" t="s">
-        <v>570</v>
       </c>
       <c r="D262" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E262" s="21" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="F262" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0262</v>
-      </c>
-      <c r="B263" s="21" t="s">
-        <v>491</v>
+      <c r="A263" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="B263" s="28" t="s">
+        <v>480</v>
       </c>
       <c r="C263" s="21" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="D263" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E263" s="21" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="F263" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0263</v>
-      </c>
-      <c r="B264" s="21" t="s">
-        <v>492</v>
+      <c r="A264" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="B264" s="28" t="s">
+        <v>481</v>
       </c>
       <c r="C264" s="21" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="D264" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E264" s="21" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="F264" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0264</v>
-      </c>
-      <c r="B265" s="21" t="s">
-        <v>493</v>
+      <c r="A265" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="B265" s="28" t="s">
+        <v>482</v>
       </c>
       <c r="C265" s="21" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="D265" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E265" s="21" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="F265" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0265</v>
-      </c>
-      <c r="B266" s="21" t="s">
-        <v>494</v>
+      <c r="A266" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="B266" s="28" t="s">
+        <v>483</v>
       </c>
       <c r="C266" s="21" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="D266" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E266" s="21" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="F266" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0266</v>
-      </c>
-      <c r="B267" s="21" t="s">
-        <v>495</v>
+      <c r="A267" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="B267" s="28" t="s">
+        <v>484</v>
       </c>
       <c r="C267" s="21" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="D267" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E267" s="21" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="F267" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0267</v>
-      </c>
-      <c r="B268" s="21" t="s">
-        <v>496</v>
+      <c r="A268" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="B268" s="28" t="s">
+        <v>485</v>
       </c>
       <c r="C268" s="21" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="D268" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E268" s="21" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="F268" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0268</v>
-      </c>
-      <c r="B269" s="21" t="s">
-        <v>497</v>
+      <c r="A269" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="B269" s="28" t="s">
+        <v>486</v>
       </c>
       <c r="C269" s="21" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="D269" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E269" s="21" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="F269" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0269</v>
-      </c>
-      <c r="B270" s="21" t="s">
-        <v>498</v>
+      <c r="A270" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="B270" s="28" t="s">
+        <v>487</v>
       </c>
       <c r="C270" s="21" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="D270" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E270" s="21" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="F270" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0270</v>
-      </c>
-      <c r="B271" s="21" t="s">
-        <v>499</v>
+      <c r="A271" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="B271" s="28" t="s">
+        <v>488</v>
       </c>
       <c r="C271" s="21" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="D271" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E271" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="F271" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="B272" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="C272" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D272" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E272" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="F272" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="B273" s="28" t="s">
         <v>490</v>
       </c>
-      <c r="F271" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0271</v>
-      </c>
-      <c r="B272" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="C272" s="21" t="s">
-        <v>575</v>
-      </c>
-      <c r="D272" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E272" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="F272" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0272</v>
-      </c>
-      <c r="B273" s="21" t="s">
-        <v>501</v>
-      </c>
       <c r="C273" s="21" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="D273" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E273" s="21" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="F273" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0273</v>
-      </c>
-      <c r="B274" s="21" t="s">
-        <v>502</v>
+      <c r="A274" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="B274" s="28" t="s">
+        <v>491</v>
       </c>
       <c r="C274" s="21" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="D274" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E274" s="21" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="F274" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0274</v>
-      </c>
-      <c r="B275" s="21" t="s">
-        <v>503</v>
+      <c r="A275" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="B275" s="28" t="s">
+        <v>492</v>
       </c>
       <c r="C275" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D275" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E275" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F275" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0275</v>
-      </c>
-      <c r="B276" s="21" t="s">
-        <v>505</v>
+      <c r="A276" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="B276" s="28" t="s">
+        <v>494</v>
       </c>
       <c r="C276" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D276" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E276" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F276" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0276</v>
-      </c>
-      <c r="B277" s="21" t="s">
-        <v>506</v>
+      <c r="A277" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="B277" s="28" t="s">
+        <v>495</v>
       </c>
       <c r="C277" s="21" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="D277" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E277" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F277" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0277</v>
-      </c>
-      <c r="B278" s="21" t="s">
-        <v>507</v>
+      <c r="A278" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="B278" s="28" t="s">
+        <v>496</v>
       </c>
       <c r="C278" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D278" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E278" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F278" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0278</v>
-      </c>
-      <c r="B279" s="21" t="s">
-        <v>508</v>
+      <c r="A279" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="B279" s="28" t="s">
+        <v>497</v>
       </c>
       <c r="C279" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D279" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E279" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F279" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0279</v>
-      </c>
-      <c r="B280" s="21" t="s">
-        <v>509</v>
+      <c r="A280" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="B280" s="28" t="s">
+        <v>498</v>
       </c>
       <c r="C280" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D280" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E280" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F280" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0280</v>
-      </c>
-      <c r="B281" s="21" t="s">
-        <v>510</v>
+      <c r="A281" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="B281" s="28" t="s">
+        <v>499</v>
       </c>
       <c r="C281" s="21" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="D281" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E281" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F281" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0281</v>
-      </c>
-      <c r="B282" s="21" t="s">
-        <v>511</v>
+      <c r="A282" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="B282" s="28" t="s">
+        <v>500</v>
       </c>
       <c r="C282" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D282" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E282" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F282" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0282</v>
-      </c>
-      <c r="B283" s="21" t="s">
-        <v>512</v>
+      <c r="A283" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="B283" s="28" t="s">
+        <v>501</v>
       </c>
       <c r="C283" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D283" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E283" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F283" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0283</v>
-      </c>
-      <c r="B284" s="21" t="s">
-        <v>513</v>
+      <c r="A284" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="B284" s="28" t="s">
+        <v>502</v>
       </c>
       <c r="C284" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D284" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E284" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F284" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0284</v>
-      </c>
-      <c r="B285" s="21" t="s">
-        <v>514</v>
+      <c r="A285" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="B285" s="28" t="s">
+        <v>503</v>
       </c>
       <c r="C285" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D285" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E285" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="F285" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="B286" s="28" t="s">
         <v>504</v>
       </c>
-      <c r="F285" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0285</v>
-      </c>
-      <c r="B286" s="21" t="s">
-        <v>515</v>
-      </c>
       <c r="C286" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D286" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E286" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F286" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0286</v>
-      </c>
-      <c r="B287" s="21" t="s">
-        <v>516</v>
+      <c r="A287" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B287" s="28" t="s">
+        <v>505</v>
       </c>
       <c r="C287" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D287" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E287" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F287" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0287</v>
-      </c>
-      <c r="B288" s="21" t="s">
-        <v>517</v>
+      <c r="A288" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="B288" s="28" t="s">
+        <v>506</v>
       </c>
       <c r="C288" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D288" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E288" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F288" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0288</v>
-      </c>
-      <c r="B289" s="21" t="s">
-        <v>518</v>
+      <c r="A289" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="B289" s="28" t="s">
+        <v>507</v>
       </c>
       <c r="C289" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D289" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E289" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F289" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0289</v>
-      </c>
-      <c r="B290" s="21" t="s">
-        <v>519</v>
+      <c r="A290" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="B290" s="28" t="s">
+        <v>508</v>
       </c>
       <c r="C290" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D290" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E290" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F290" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0290</v>
-      </c>
-      <c r="B291" s="21" t="s">
-        <v>520</v>
+      <c r="A291" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="B291" s="28" t="s">
+        <v>509</v>
       </c>
       <c r="C291" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D291" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E291" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F291" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0291</v>
-      </c>
-      <c r="B292" s="21" t="s">
-        <v>521</v>
+      <c r="A292" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="B292" s="28" t="s">
+        <v>510</v>
       </c>
       <c r="C292" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D292" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E292" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F292" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0292</v>
-      </c>
-      <c r="B293" s="21" t="s">
-        <v>522</v>
+      <c r="A293" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B293" s="28" t="s">
+        <v>511</v>
       </c>
       <c r="C293" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D293" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E293" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F293" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0293</v>
-      </c>
-      <c r="B294" s="21" t="s">
-        <v>523</v>
+      <c r="A294" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="B294" s="28" t="s">
+        <v>512</v>
       </c>
       <c r="C294" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D294" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E294" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F294" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0294</v>
-      </c>
-      <c r="B295" s="21" t="s">
-        <v>524</v>
+      <c r="A295" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="B295" s="28" t="s">
+        <v>513</v>
       </c>
       <c r="C295" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D295" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E295" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F295" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0295</v>
-      </c>
-      <c r="B296" s="21" t="s">
-        <v>525</v>
+      <c r="A296" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="B296" s="28" t="s">
+        <v>514</v>
       </c>
       <c r="C296" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D296" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E296" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F296" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0296</v>
-      </c>
-      <c r="B297" s="21" t="s">
-        <v>526</v>
+      <c r="A297" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="B297" s="28" t="s">
+        <v>515</v>
       </c>
       <c r="C297" s="21" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="D297" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E297" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F297" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0297</v>
-      </c>
-      <c r="B298" s="21" t="s">
-        <v>527</v>
+      <c r="A298" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="B298" s="28" t="s">
+        <v>516</v>
       </c>
       <c r="C298" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D298" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E298" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F298" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0298</v>
-      </c>
-      <c r="B299" s="21" t="s">
-        <v>528</v>
+      <c r="A299" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="B299" s="28" t="s">
+        <v>517</v>
       </c>
       <c r="C299" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D299" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E299" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F299" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0299</v>
-      </c>
-      <c r="B300" s="21" t="s">
-        <v>529</v>
+      <c r="A300" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="B300" s="28" t="s">
+        <v>518</v>
       </c>
       <c r="C300" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D300" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E300" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F300" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0300</v>
-      </c>
-      <c r="B301" s="21" t="s">
-        <v>530</v>
+      <c r="A301" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="B301" s="28" t="s">
+        <v>519</v>
       </c>
       <c r="C301" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D301" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E301" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F301" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0301</v>
-      </c>
-      <c r="B302" s="21" t="s">
-        <v>531</v>
+      <c r="A302" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="B302" s="28" t="s">
+        <v>520</v>
       </c>
       <c r="C302" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D302" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E302" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F302" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0302</v>
-      </c>
-      <c r="B303" s="21" t="s">
-        <v>532</v>
+      <c r="A303" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="B303" s="28" t="s">
+        <v>521</v>
       </c>
       <c r="C303" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D303" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E303" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F303" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0303</v>
-      </c>
-      <c r="B304" s="21" t="s">
-        <v>533</v>
+      <c r="A304" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="B304" s="28" t="s">
+        <v>522</v>
       </c>
       <c r="C304" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D304" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E304" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F304" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0304</v>
-      </c>
-      <c r="B305" s="21" t="s">
-        <v>534</v>
+      <c r="A305" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="B305" s="28" t="s">
+        <v>523</v>
       </c>
       <c r="C305" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D305" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E305" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F305" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0305</v>
-      </c>
-      <c r="B306" s="21" t="s">
-        <v>535</v>
+      <c r="A306" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="B306" s="28" t="s">
+        <v>524</v>
       </c>
       <c r="C306" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D306" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E306" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F306" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0306</v>
-      </c>
-      <c r="B307" s="21" t="s">
-        <v>536</v>
+      <c r="A307" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="B307" s="28" t="s">
+        <v>525</v>
       </c>
       <c r="C307" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D307" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E307" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F307" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0307</v>
-      </c>
-      <c r="B308" s="21" t="s">
-        <v>537</v>
+      <c r="A308" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="B308" s="28" t="s">
+        <v>526</v>
       </c>
       <c r="C308" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D308" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E308" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F308" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0308</v>
-      </c>
-      <c r="B309" s="21" t="s">
-        <v>538</v>
+      <c r="A309" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="B309" s="28" t="s">
+        <v>527</v>
       </c>
       <c r="C309" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D309" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E309" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F309" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0309</v>
-      </c>
-      <c r="B310" s="21" t="s">
-        <v>539</v>
+      <c r="A310" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="B310" s="28" t="s">
+        <v>528</v>
       </c>
       <c r="C310" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D310" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E310" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F310" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0310</v>
-      </c>
-      <c r="B311" s="21" t="s">
-        <v>540</v>
+      <c r="A311" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="B311" s="28" t="s">
+        <v>529</v>
       </c>
       <c r="C311" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D311" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E311" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F311" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0311</v>
-      </c>
-      <c r="B312" s="21" t="s">
-        <v>541</v>
+      <c r="A312" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="B312" s="28" t="s">
+        <v>530</v>
       </c>
       <c r="C312" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D312" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E312" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F312" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0312</v>
-      </c>
-      <c r="B313" s="21" t="s">
-        <v>542</v>
+      <c r="A313" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="B313" s="28" t="s">
+        <v>531</v>
       </c>
       <c r="C313" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D313" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E313" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F313" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0313</v>
-      </c>
-      <c r="B314" s="21" t="s">
-        <v>543</v>
+      <c r="A314" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="B314" s="28" t="s">
+        <v>532</v>
       </c>
       <c r="C314" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D314" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E314" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F314" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0314</v>
-      </c>
-      <c r="B315" s="21" t="s">
-        <v>544</v>
+      <c r="A315" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="B315" s="28" t="s">
+        <v>533</v>
       </c>
       <c r="C315" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D315" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E315" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F315" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0315</v>
-      </c>
-      <c r="B316" s="21" t="s">
-        <v>545</v>
+      <c r="A316" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="B316" s="28" t="s">
+        <v>534</v>
       </c>
       <c r="C316" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D316" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E316" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F316" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0316</v>
-      </c>
-      <c r="B317" s="21" t="s">
-        <v>546</v>
+      <c r="A317" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="B317" s="28" t="s">
+        <v>535</v>
       </c>
       <c r="C317" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D317" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E317" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F317" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0317</v>
-      </c>
-      <c r="B318" s="21" t="s">
-        <v>547</v>
+      <c r="A318" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="B318" s="28" t="s">
+        <v>536</v>
       </c>
       <c r="C318" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D318" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E318" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F318" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0318</v>
-      </c>
-      <c r="B319" s="21" t="s">
-        <v>548</v>
+      <c r="A319" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="B319" s="28" t="s">
+        <v>537</v>
       </c>
       <c r="C319" s="21" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="D319" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E319" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F319" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0319</v>
+      <c r="A320" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="B320" s="28" t="s">
+        <v>560</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="D320" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="F320" s="6" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F320"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text=".txt">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text=".txt">
       <formula>NOT(ISERROR(SEARCH(".txt",B1)))</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="[">
+      <formula>NOT(ISERROR(SEARCH("[",B1)))</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NLP/TOMES_Entity_Dictionary.xlsx
+++ b/NLP/TOMES_Entity_Dictionary.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2250" windowWidth="20400" windowHeight="10410" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="20400" windowHeight="10410"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -108,9 +108,6 @@
     <t>identifier</t>
   </si>
   <si>
-    <t>For information on the "Entities" worksheet schema, please see "entity_dictionary__template.xlsx".</t>
-  </si>
-  <si>
     <t>Constitution Hall</t>
   </si>
   <si>
@@ -2740,6 +2737,9 @@
   </si>
   <si>
     <t>0319</t>
+  </si>
+  <si>
+    <t>For information on the "Entities" worksheet schema, please see "entity_dictionary_template.xlsx".</t>
   </si>
 </sst>
 </file>
@@ -2885,11 +2885,11 @@
   <dxfs count="3">
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2905,11 +2905,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3191,20 +3191,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>903</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -3216,7 +3214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -3253,7 +3251,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>5</v>
@@ -3265,7 +3263,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>13</v>
@@ -3273,7 +3271,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>14</v>
@@ -3285,7 +3283,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>13</v>
@@ -3293,7 +3291,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>6</v>
@@ -3305,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>13</v>
@@ -3313,7 +3311,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>7</v>
@@ -3325,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>13</v>
@@ -3333,7 +3331,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>8</v>
@@ -3345,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>13</v>
@@ -3353,7 +3351,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>9</v>
@@ -3365,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>13</v>
@@ -3373,7 +3371,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>10</v>
@@ -3385,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>13</v>
@@ -3393,7 +3391,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>11</v>
@@ -3405,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>13</v>
@@ -3413,7 +3411,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>16</v>
@@ -3425,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>13</v>
@@ -3433,7 +3431,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>15</v>
@@ -3445,4767 +3443,4767 @@
         <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="D12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="D13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="D14" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="D15" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="D16" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="D17" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="D18" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="D19" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B20" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="D20" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B21" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="D21" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B22" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="D22" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B23" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="D23" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B24" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="D24" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B25" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="D25" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B26" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="D26" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B27" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="D27" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B29" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="D29" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B31" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="D31" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B32" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="D32" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B33" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="D33" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B34" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="D34" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B35" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="D35" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B36" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="D36" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B37" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="D37" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D39" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D40" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D41" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D42" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D43" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D44" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D45" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D46" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D47" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D48" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D49" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D50" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D51" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D52" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D53" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D54" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B55" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>117</v>
-      </c>
       <c r="D55" s="11" t="b">
         <v>1</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B56" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>119</v>
-      </c>
       <c r="D56" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D57" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B58" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>122</v>
-      </c>
       <c r="D58" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B59" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="D59" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B60" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="D60" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B61" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="D61" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B62" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>130</v>
-      </c>
       <c r="D62" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D63" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B64" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="D64" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D65" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D66" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D67" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D68" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B69" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>139</v>
-      </c>
       <c r="D69" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B70" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="D70" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D71" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B72" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="D72" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B73" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="D73" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D74" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B75" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="D75" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B76" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>151</v>
-      </c>
       <c r="D76" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B77" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>153</v>
-      </c>
       <c r="D77" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B78" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>155</v>
-      </c>
       <c r="D78" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B79" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="D79" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D80" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B81" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>160</v>
-      </c>
       <c r="D81" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B82" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="D82" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B83" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>164</v>
-      </c>
       <c r="D83" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B84" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>166</v>
-      </c>
       <c r="D84" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B85" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>168</v>
-      </c>
       <c r="D85" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B86" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>170</v>
-      </c>
       <c r="D86" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B87" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="D87" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D87" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="F87" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B88" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="D88" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B89" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>177</v>
-      </c>
       <c r="D89" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B90" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C90" s="6" t="s">
-        <v>179</v>
-      </c>
       <c r="D90" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B91" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="D91" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B92" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>183</v>
-      </c>
       <c r="D92" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D93" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B94" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="D94" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D95" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B96" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>189</v>
-      </c>
       <c r="D96" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B97" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>191</v>
-      </c>
       <c r="D97" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B98" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D98" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D99" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B100" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="D100" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B101" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>198</v>
-      </c>
       <c r="D101" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C102" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D102" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D102" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>200</v>
-      </c>
       <c r="F102" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B103" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C103" s="6" t="s">
-        <v>202</v>
-      </c>
       <c r="D103" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B104" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>204</v>
-      </c>
       <c r="D104" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B105" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>206</v>
-      </c>
       <c r="D105" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D106" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B107" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C107" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C107" s="6" t="s">
-        <v>209</v>
-      </c>
       <c r="D107" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B108" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>211</v>
-      </c>
       <c r="D108" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D109" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B110" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C110" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="D110" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B111" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C111" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="D111" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B112" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C112" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="D112" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B113" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C113" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>220</v>
-      </c>
       <c r="D113" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B114" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C114" s="6" t="s">
-        <v>222</v>
-      </c>
       <c r="D114" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D115" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B116" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C116" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C116" s="6" t="s">
-        <v>225</v>
-      </c>
       <c r="D116" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B117" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C117" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="D117" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B118" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C118" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="D118" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B119" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C119" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C119" s="6" t="s">
-        <v>231</v>
-      </c>
       <c r="D119" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B120" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="D120" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B121" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C121" s="6" t="s">
-        <v>235</v>
-      </c>
       <c r="D121" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B122" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="C122" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C122" s="6" t="s">
-        <v>237</v>
-      </c>
       <c r="D122" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B123" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="C123" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C123" s="6" t="s">
-        <v>239</v>
-      </c>
       <c r="D123" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B124" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C124" s="6" t="s">
-        <v>241</v>
-      </c>
       <c r="D124" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B125" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C125" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C125" s="6" t="s">
-        <v>243</v>
-      </c>
       <c r="D125" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B126" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="D126" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B127" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="C127" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C127" s="6" t="s">
-        <v>247</v>
-      </c>
       <c r="D127" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B128" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C128" s="6" t="s">
-        <v>249</v>
-      </c>
       <c r="D128" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B129" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C129" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>251</v>
-      </c>
       <c r="D129" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B130" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C130" s="6" t="s">
-        <v>253</v>
-      </c>
       <c r="D130" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B131" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="C131" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C131" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="D131" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B132" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="C132" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C132" s="6" t="s">
-        <v>257</v>
-      </c>
       <c r="D132" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B133" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="C133" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C133" s="6" t="s">
-        <v>259</v>
-      </c>
       <c r="D133" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B134" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="C134" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>261</v>
-      </c>
       <c r="D134" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B135" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C135" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C135" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="D135" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B136" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C136" s="6" t="s">
-        <v>265</v>
-      </c>
       <c r="D136" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B137" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="C137" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C137" s="6" t="s">
-        <v>267</v>
-      </c>
       <c r="D137" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B138" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="C138" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C138" s="6" t="s">
-        <v>269</v>
-      </c>
       <c r="D138" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B139" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="C139" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C139" s="6" t="s">
-        <v>271</v>
-      </c>
       <c r="D139" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B140" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>273</v>
-      </c>
       <c r="D140" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B141" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="D141" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B142" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="C142" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C142" s="6" t="s">
-        <v>277</v>
-      </c>
       <c r="D142" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B143" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="C143" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C143" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="D143" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B144" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="C144" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>281</v>
-      </c>
       <c r="D144" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B145" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="C145" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>283</v>
-      </c>
       <c r="D145" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B146" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="C146" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C146" s="6" t="s">
-        <v>285</v>
-      </c>
       <c r="D146" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B147" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="C147" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C147" s="6" t="s">
-        <v>287</v>
-      </c>
       <c r="D147" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B148" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C148" s="6" t="s">
-        <v>289</v>
-      </c>
       <c r="D148" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B149" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="C149" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C149" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="D149" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B150" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C150" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C150" s="6" t="s">
-        <v>293</v>
-      </c>
       <c r="D150" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B151" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="C151" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C151" s="6" t="s">
-        <v>295</v>
-      </c>
       <c r="D151" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B152" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C152" s="6" t="s">
-        <v>297</v>
-      </c>
       <c r="D152" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B153" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C153" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C153" s="6" t="s">
-        <v>299</v>
-      </c>
       <c r="D153" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B154" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C154" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C154" s="6" t="s">
-        <v>301</v>
-      </c>
       <c r="D154" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B155" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C155" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C155" s="6" t="s">
-        <v>303</v>
-      </c>
       <c r="D155" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B156" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="C156" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C156" s="6" t="s">
-        <v>305</v>
-      </c>
       <c r="D156" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B157" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="C157" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C157" s="6" t="s">
-        <v>307</v>
-      </c>
       <c r="D157" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B158" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="C158" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C158" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="D158" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B159" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="C159" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C159" s="6" t="s">
-        <v>311</v>
-      </c>
       <c r="D159" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B160" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C160" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C160" s="6" t="s">
-        <v>313</v>
-      </c>
       <c r="D160" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B161" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="C161" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C161" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="D161" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B162" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="C162" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C162" s="6" t="s">
-        <v>317</v>
-      </c>
       <c r="D162" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B163" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="C163" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C163" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="D163" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B164" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="C164" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C164" s="6" t="s">
-        <v>321</v>
-      </c>
       <c r="D164" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B165" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="C165" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C165" s="6" t="s">
-        <v>323</v>
-      </c>
       <c r="D165" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B166" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="C166" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C166" s="6" t="s">
-        <v>325</v>
-      </c>
       <c r="D166" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B167" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="C167" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C167" s="6" t="s">
-        <v>327</v>
-      </c>
       <c r="D167" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B168" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C168" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="D168" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B169" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="C169" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C169" s="6" t="s">
-        <v>331</v>
-      </c>
       <c r="D169" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B170" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="C170" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C170" s="6" t="s">
-        <v>333</v>
-      </c>
       <c r="D170" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B171" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="C171" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C171" s="6" t="s">
-        <v>335</v>
-      </c>
       <c r="D171" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B172" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="C172" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C172" s="6" t="s">
-        <v>337</v>
-      </c>
       <c r="D172" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B173" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="C173" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C173" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D173" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B174" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="C174" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C174" s="6" t="s">
-        <v>341</v>
-      </c>
       <c r="D174" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B175" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="C175" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C175" s="6" t="s">
-        <v>343</v>
-      </c>
       <c r="D175" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B176" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="C176" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C176" s="6" t="s">
-        <v>345</v>
-      </c>
       <c r="D176" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B177" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D177" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B178" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="C178" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C178" s="6" t="s">
-        <v>348</v>
-      </c>
       <c r="D178" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B179" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="C179" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C179" s="6" t="s">
-        <v>354</v>
-      </c>
       <c r="D179" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B180" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="C180" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C180" s="6" t="s">
-        <v>356</v>
-      </c>
       <c r="D180" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B181" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D181" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B182" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="C182" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C182" s="6" t="s">
-        <v>359</v>
-      </c>
       <c r="D182" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B183" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="C183" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C183" s="6" t="s">
-        <v>361</v>
-      </c>
       <c r="D183" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B184" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="C184" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C184" s="6" t="s">
-        <v>363</v>
-      </c>
       <c r="D184" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B185" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="C185" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C185" s="6" t="s">
-        <v>365</v>
-      </c>
       <c r="D185" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B186" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="C186" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="C186" s="14" t="s">
-        <v>367</v>
-      </c>
       <c r="D186" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E186" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F186" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B187" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="C187" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="C187" s="14" t="s">
-        <v>369</v>
-      </c>
       <c r="D187" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E187" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F187" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B188" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="C188" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C188" s="6" t="s">
-        <v>371</v>
-      </c>
       <c r="D188" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F188" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B189" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="C189" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C189" s="6" t="s">
-        <v>373</v>
-      </c>
       <c r="D189" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F189" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B190" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="C190" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C190" s="6" t="s">
-        <v>375</v>
-      </c>
       <c r="D190" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F190" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B191" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="C191" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C191" s="6" t="s">
-        <v>377</v>
-      </c>
       <c r="D191" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F191" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B192" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C192" s="6" t="s">
-        <v>379</v>
-      </c>
       <c r="D192" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F192" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B193" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="C193" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C193" s="6" t="s">
-        <v>381</v>
-      </c>
       <c r="D193" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F193" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B194" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D194" s="9" t="b">
         <v>0</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F194" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B195" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="C195" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C195" s="6" t="s">
-        <v>385</v>
-      </c>
       <c r="D195" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F195" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B196" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C196" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C196" s="6" t="s">
-        <v>387</v>
-      </c>
       <c r="D196" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F196" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B197" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="C197" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C197" s="6" t="s">
-        <v>389</v>
-      </c>
       <c r="D197" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F197" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B198" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="C198" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C198" s="6" t="s">
-        <v>391</v>
-      </c>
       <c r="D198" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F198" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B199" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="C199" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C199" s="6" t="s">
-        <v>393</v>
-      </c>
       <c r="D199" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F199" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B200" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="C200" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C200" s="6" t="s">
-        <v>395</v>
-      </c>
       <c r="D200" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F200" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B201" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D201" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F201" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B202" s="28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D202" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F202" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B203" s="28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D203" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F203" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B204" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D204" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F204" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B205" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D205" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F205" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B206" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D206" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F206" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B207" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D207" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F207" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B208" s="28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D208" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F208" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B209" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D209" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F209" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B210" s="28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D210" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F210" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B211" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="C211" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C211" s="6" t="s">
-        <v>407</v>
-      </c>
       <c r="D211" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F211" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B212" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="C212" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C212" s="6" t="s">
-        <v>409</v>
-      </c>
       <c r="D212" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F212" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B213" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="C213" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C213" s="6" t="s">
-        <v>411</v>
-      </c>
       <c r="D213" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F213" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B214" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="C214" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C214" s="6" t="s">
-        <v>413</v>
-      </c>
       <c r="D214" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F214" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B215" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="C215" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="C215" s="6" t="s">
-        <v>415</v>
-      </c>
       <c r="D215" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F215" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B216" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="C216" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C216" s="6" t="s">
-        <v>417</v>
-      </c>
       <c r="D216" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F216" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B217" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="C217" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="C217" s="6" t="s">
-        <v>419</v>
-      </c>
       <c r="D217" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F217" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B218" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="C218" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C218" s="6" t="s">
-        <v>421</v>
-      </c>
       <c r="D218" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F218" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B219" s="29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D219" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B220" s="29" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D220" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B221" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D221" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B222" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D222" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B223" s="29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D223" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B224" s="29" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D224" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B225" s="29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D225" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B226" s="30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D226" s="12" t="b">
         <v>1</v>
       </c>
       <c r="E226" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B227" s="29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D227" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B228" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D228" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B229" s="29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D229" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B230" s="29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D230" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B231" s="29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D231" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B232" s="29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D232" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B233" s="29" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D233" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B234" s="29" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D234" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B235" s="29" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D235" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B236" s="29" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D236" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B237" s="30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D237" s="12" t="b">
         <v>1</v>
       </c>
       <c r="E237" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B238" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="C238" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="D238" s="5" t="b">
         <v>0</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B239" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="C239" s="15" t="s">
         <v>441</v>
-      </c>
-      <c r="C239" s="15" t="s">
-        <v>442</v>
       </c>
       <c r="D239" s="12" t="b">
         <v>0</v>
       </c>
       <c r="E239" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B240" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="C240" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>444</v>
       </c>
       <c r="D240" s="5" t="b">
         <v>0</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B241" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="C241" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>446</v>
       </c>
       <c r="D241" s="5" t="b">
         <v>0</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B242" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="C242" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="D242" s="5" t="b">
         <v>0</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B243" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="C243" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>450</v>
       </c>
       <c r="D243" s="5" t="b">
         <v>0</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B244" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="C244" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>452</v>
       </c>
       <c r="D244" s="5" t="b">
         <v>0</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B245" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="C245" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="C245" s="4" t="s">
-        <v>454</v>
       </c>
       <c r="D245" s="5" t="b">
         <v>0</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B246" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="C246" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>456</v>
       </c>
       <c r="D246" s="5" t="b">
         <v>0</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B247" s="29" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D247" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B248" s="29" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D248" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B249" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="C249" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="C249" s="22" t="s">
-        <v>465</v>
-      </c>
       <c r="D249" s="17" t="b">
         <v>1</v>
       </c>
       <c r="E249" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F249" s="13" t="s">
         <v>13</v>
@@ -8213,19 +8211,19 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B250" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="C250" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="C250" s="22" t="s">
-        <v>467</v>
-      </c>
       <c r="D250" s="17" t="b">
         <v>1</v>
       </c>
       <c r="E250" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F250" s="13" t="s">
         <v>13</v>
@@ -8233,19 +8231,19 @@
     </row>
     <row r="251" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B251" s="31" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C251" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="D251" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E251" s="16" t="s">
         <v>475</v>
-      </c>
-      <c r="D251" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E251" s="16" t="s">
-        <v>476</v>
       </c>
       <c r="F251" s="13" t="s">
         <v>13</v>
@@ -8253,1394 +8251,1394 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B252" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="C252" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="C252" s="16" t="s">
-        <v>470</v>
-      </c>
       <c r="D252" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F252" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B253" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="C253" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="C253" s="14" t="s">
-        <v>472</v>
-      </c>
       <c r="D253" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E253" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F253" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B254" s="28" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C254" s="22" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D254" s="25" t="b">
         <v>1</v>
       </c>
       <c r="E254" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F254" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B255" s="28" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C255" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D255" s="25" t="b">
         <v>1</v>
       </c>
       <c r="E255" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F255" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B256" s="28" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C256" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="D256" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E256" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="D256" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E256" s="18" t="s">
-        <v>541</v>
-      </c>
       <c r="F256" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B257" s="28" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C257" s="23" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D257" s="25" t="b">
         <v>1</v>
       </c>
       <c r="E257" s="19" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F257" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B258" s="28" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C258" s="22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D258" s="25" t="b">
         <v>1</v>
       </c>
       <c r="E258" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F258" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B259" s="28" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C259" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="D259" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E259" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="D259" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E259" s="19" t="s">
-        <v>545</v>
-      </c>
       <c r="F259" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B260" s="28" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C260" s="22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D260" s="25" t="b">
         <v>1</v>
       </c>
       <c r="E260" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F260" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B261" s="28" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C261" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="D261" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E261" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="D261" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E261" s="18" t="s">
-        <v>548</v>
-      </c>
       <c r="F261" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B262" s="28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C262" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D262" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E262" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F262" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B263" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C263" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D263" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E263" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F263" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B264" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C264" s="21" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D264" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E264" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F264" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B265" s="28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C265" s="21" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D265" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E265" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F265" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B266" s="28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C266" s="21" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D266" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E266" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F266" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B267" s="28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C267" s="21" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D267" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E267" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F267" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B268" s="28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C268" s="21" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D268" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E268" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F268" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B269" s="28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C269" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D269" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E269" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F269" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B270" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C270" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D270" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E270" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F270" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B271" s="28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C271" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D271" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E271" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F271" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B272" s="28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C272" s="21" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D272" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E272" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F272" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B273" s="28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C273" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D273" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E273" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F273" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B274" s="28" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C274" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D274" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E274" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F274" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B275" s="28" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C275" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D275" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E275" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F275" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B276" s="28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C276" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D276" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E276" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F276" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B277" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C277" s="21" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D277" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E277" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F277" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B278" s="28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C278" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D278" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E278" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F278" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B279" s="28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C279" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D279" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E279" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F279" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B280" s="28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C280" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D280" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E280" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F280" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B281" s="28" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C281" s="21" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D281" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E281" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F281" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B282" s="28" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C282" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D282" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E282" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F282" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B283" s="28" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C283" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D283" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E283" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F283" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B284" s="28" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C284" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D284" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E284" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F284" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B285" s="28" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C285" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D285" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E285" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F285" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B286" s="28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C286" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D286" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E286" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F286" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B287" s="28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C287" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D287" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E287" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F287" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B288" s="28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C288" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D288" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E288" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F288" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B289" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C289" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D289" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E289" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F289" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B290" s="28" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C290" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D290" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E290" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F290" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B291" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C291" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D291" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E291" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F291" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B292" s="28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C292" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D292" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E292" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F292" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B293" s="28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C293" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D293" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E293" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F293" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B294" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C294" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D294" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E294" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F294" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B295" s="28" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C295" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D295" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E295" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F295" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B296" s="28" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C296" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D296" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E296" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F296" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B297" s="28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C297" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D297" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E297" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F297" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B298" s="28" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C298" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D298" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E298" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F298" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B299" s="28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C299" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D299" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E299" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F299" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B300" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C300" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D300" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E300" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F300" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B301" s="28" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C301" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D301" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E301" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F301" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B302" s="28" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C302" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D302" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E302" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F302" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B303" s="28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C303" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D303" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E303" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F303" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B304" s="28" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C304" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D304" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E304" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F304" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B305" s="28" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C305" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D305" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E305" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F305" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B306" s="28" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C306" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D306" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E306" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F306" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B307" s="28" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C307" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D307" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E307" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F307" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B308" s="28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C308" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D308" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E308" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F308" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B309" s="28" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C309" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D309" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E309" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F309" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B310" s="28" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C310" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D310" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E310" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F310" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B311" s="28" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C311" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D311" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E311" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F311" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B312" s="28" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C312" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D312" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E312" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F312" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B313" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C313" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D313" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E313" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F313" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B314" s="28" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C314" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D314" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E314" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F314" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B315" s="28" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C315" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D315" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E315" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F315" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B316" s="28" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C316" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D316" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E316" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F316" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B317" s="28" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C317" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D317" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E317" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F317" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B318" s="28" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C318" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D318" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E318" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F318" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B319" s="28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C319" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D319" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E319" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F319" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B320" s="28" t="s">
+        <v>559</v>
+      </c>
+      <c r="C320" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="C320" s="6" t="s">
-        <v>561</v>
-      </c>
       <c r="D320" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F320" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F320"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text=".txt">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text=".txt">
       <formula>NOT(ISERROR(SEARCH(".txt",B1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="[">
       <formula>NOT(ISERROR(SEARCH("[",B1)))</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
